--- a/studios/studio4/Prob1.xlsx
+++ b/studios/studio4/Prob1.xlsx
@@ -1741,1540 +1741,1540 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>121.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>144.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>169.0</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>196.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>225.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>256.0</c:v>
+                  <c:v>266.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>289.0</c:v>
+                  <c:v>299.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>324.0</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>361.0</c:v>
+                  <c:v>371.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>400.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>441.0</c:v>
+                  <c:v>451.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>484.0</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>529.0</c:v>
+                  <c:v>539.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>576.0</c:v>
+                  <c:v>586.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>625.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>676.0</c:v>
+                  <c:v>686.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>729.0</c:v>
+                  <c:v>739.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>784.0</c:v>
+                  <c:v>794.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>841.0</c:v>
+                  <c:v>851.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>900.0</c:v>
+                  <c:v>910.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>961.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1024.0</c:v>
+                  <c:v>1034.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1089.0</c:v>
+                  <c:v>1099.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1156.0</c:v>
+                  <c:v>1166.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1225.0</c:v>
+                  <c:v>1235.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1296.0</c:v>
+                  <c:v>1306.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1369.0</c:v>
+                  <c:v>1379.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1444.0</c:v>
+                  <c:v>1454.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1521.0</c:v>
+                  <c:v>1531.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1600.0</c:v>
+                  <c:v>1610.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1681.0</c:v>
+                  <c:v>1691.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1764.0</c:v>
+                  <c:v>1774.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1849.0</c:v>
+                  <c:v>1859.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1936.0</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2025.0</c:v>
+                  <c:v>2035.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2116.0</c:v>
+                  <c:v>2126.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2209.0</c:v>
+                  <c:v>2219.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2304.0</c:v>
+                  <c:v>2314.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2401.0</c:v>
+                  <c:v>2411.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2500.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2601.0</c:v>
+                  <c:v>2611.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2704.0</c:v>
+                  <c:v>2714.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2809.0</c:v>
+                  <c:v>2819.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2916.0</c:v>
+                  <c:v>2926.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3025.0</c:v>
+                  <c:v>3035.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3136.0</c:v>
+                  <c:v>3146.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3249.0</c:v>
+                  <c:v>3259.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3364.0</c:v>
+                  <c:v>3374.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3481.0</c:v>
+                  <c:v>3491.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3600.0</c:v>
+                  <c:v>3610.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3721.0</c:v>
+                  <c:v>3731.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3844.0</c:v>
+                  <c:v>3854.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3969.0</c:v>
+                  <c:v>3979.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4096.0</c:v>
+                  <c:v>4106.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4225.0</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4356.0</c:v>
+                  <c:v>4366.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4489.0</c:v>
+                  <c:v>4499.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4624.0</c:v>
+                  <c:v>4634.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4761.0</c:v>
+                  <c:v>4771.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4900.0</c:v>
+                  <c:v>4910.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5041.0</c:v>
+                  <c:v>5051.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5184.0</c:v>
+                  <c:v>5194.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5329.0</c:v>
+                  <c:v>5339.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5476.0</c:v>
+                  <c:v>5486.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5625.0</c:v>
+                  <c:v>5635.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5776.0</c:v>
+                  <c:v>5786.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5929.0</c:v>
+                  <c:v>5939.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>6084.0</c:v>
+                  <c:v>6094.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6241.0</c:v>
+                  <c:v>6251.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>6400.0</c:v>
+                  <c:v>6410.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>6561.0</c:v>
+                  <c:v>6571.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6724.0</c:v>
+                  <c:v>6734.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6889.0</c:v>
+                  <c:v>6899.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>7056.0</c:v>
+                  <c:v>7066.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>7225.0</c:v>
+                  <c:v>7235.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7396.0</c:v>
+                  <c:v>7406.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7569.0</c:v>
+                  <c:v>7579.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7744.0</c:v>
+                  <c:v>7754.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7921.0</c:v>
+                  <c:v>7931.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8100.0</c:v>
+                  <c:v>8110.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8281.0</c:v>
+                  <c:v>8291.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8464.0</c:v>
+                  <c:v>8474.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8649.0</c:v>
+                  <c:v>8659.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8836.0</c:v>
+                  <c:v>8846.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9025.0</c:v>
+                  <c:v>9035.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9216.0</c:v>
+                  <c:v>9226.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9409.0</c:v>
+                  <c:v>9419.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9604.0</c:v>
+                  <c:v>9614.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9801.0</c:v>
+                  <c:v>9811.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000.0</c:v>
+                  <c:v>10010.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>10201.0</c:v>
+                  <c:v>10211.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>10404.0</c:v>
+                  <c:v>10414.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>10609.0</c:v>
+                  <c:v>10619.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>10816.0</c:v>
+                  <c:v>10826.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>11025.0</c:v>
+                  <c:v>11035.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>11236.0</c:v>
+                  <c:v>11246.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11449.0</c:v>
+                  <c:v>11459.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11664.0</c:v>
+                  <c:v>11674.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>11881.0</c:v>
+                  <c:v>11891.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>12100.0</c:v>
+                  <c:v>12110.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>12321.0</c:v>
+                  <c:v>12331.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>12544.0</c:v>
+                  <c:v>12554.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>12769.0</c:v>
+                  <c:v>12779.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>12996.0</c:v>
+                  <c:v>13006.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>13225.0</c:v>
+                  <c:v>13235.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>13456.0</c:v>
+                  <c:v>13466.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>13689.0</c:v>
+                  <c:v>13699.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>13924.0</c:v>
+                  <c:v>13934.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>14161.0</c:v>
+                  <c:v>14171.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>14400.0</c:v>
+                  <c:v>14410.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>14641.0</c:v>
+                  <c:v>14651.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>14884.0</c:v>
+                  <c:v>14894.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>15129.0</c:v>
+                  <c:v>15139.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>15376.0</c:v>
+                  <c:v>15386.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>15625.0</c:v>
+                  <c:v>15635.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>15876.0</c:v>
+                  <c:v>15886.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>16129.0</c:v>
+                  <c:v>16139.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16384.0</c:v>
+                  <c:v>16394.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>16641.0</c:v>
+                  <c:v>16651.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>16900.0</c:v>
+                  <c:v>16910.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>17161.0</c:v>
+                  <c:v>17171.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>17424.0</c:v>
+                  <c:v>17434.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>17689.0</c:v>
+                  <c:v>17699.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>17956.0</c:v>
+                  <c:v>17966.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>18225.0</c:v>
+                  <c:v>18235.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>18496.0</c:v>
+                  <c:v>18506.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>18769.0</c:v>
+                  <c:v>18779.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>19044.0</c:v>
+                  <c:v>19054.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>19321.0</c:v>
+                  <c:v>19331.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>19600.0</c:v>
+                  <c:v>19610.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>19881.0</c:v>
+                  <c:v>19891.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>20164.0</c:v>
+                  <c:v>20174.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>20449.0</c:v>
+                  <c:v>20459.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>20736.0</c:v>
+                  <c:v>20746.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>21025.0</c:v>
+                  <c:v>21035.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>21316.0</c:v>
+                  <c:v>21326.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>21609.0</c:v>
+                  <c:v>21619.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>21904.0</c:v>
+                  <c:v>21914.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>22201.0</c:v>
+                  <c:v>22211.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>22500.0</c:v>
+                  <c:v>22510.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>22801.0</c:v>
+                  <c:v>22811.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>23104.0</c:v>
+                  <c:v>23114.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>23409.0</c:v>
+                  <c:v>23419.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>23716.0</c:v>
+                  <c:v>23726.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>24025.0</c:v>
+                  <c:v>24035.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>24336.0</c:v>
+                  <c:v>24346.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>24649.0</c:v>
+                  <c:v>24659.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>24964.0</c:v>
+                  <c:v>24974.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>25281.0</c:v>
+                  <c:v>25291.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>25600.0</c:v>
+                  <c:v>25610.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>25921.0</c:v>
+                  <c:v>25931.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>26244.0</c:v>
+                  <c:v>26254.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>26569.0</c:v>
+                  <c:v>26579.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>26896.0</c:v>
+                  <c:v>26906.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>27225.0</c:v>
+                  <c:v>27235.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>27556.0</c:v>
+                  <c:v>27566.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>27889.0</c:v>
+                  <c:v>27899.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>28224.0</c:v>
+                  <c:v>28234.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>28561.0</c:v>
+                  <c:v>28571.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>28900.0</c:v>
+                  <c:v>28910.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>29241.0</c:v>
+                  <c:v>29251.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>29584.0</c:v>
+                  <c:v>29594.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>29929.0</c:v>
+                  <c:v>29939.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>30276.0</c:v>
+                  <c:v>30286.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>30625.0</c:v>
+                  <c:v>30635.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>30976.0</c:v>
+                  <c:v>30986.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>31329.0</c:v>
+                  <c:v>31339.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>31684.0</c:v>
+                  <c:v>31694.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>32041.0</c:v>
+                  <c:v>32051.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>32400.0</c:v>
+                  <c:v>32410.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>32761.0</c:v>
+                  <c:v>32771.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>33124.0</c:v>
+                  <c:v>33134.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>33489.0</c:v>
+                  <c:v>33499.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>33856.0</c:v>
+                  <c:v>33866.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>34225.0</c:v>
+                  <c:v>34235.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>34596.0</c:v>
+                  <c:v>34606.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>34969.0</c:v>
+                  <c:v>34979.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>35344.0</c:v>
+                  <c:v>35354.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>35721.0</c:v>
+                  <c:v>35731.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>36100.0</c:v>
+                  <c:v>36110.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>36481.0</c:v>
+                  <c:v>36491.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>36864.0</c:v>
+                  <c:v>36874.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>37249.0</c:v>
+                  <c:v>37259.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>37636.0</c:v>
+                  <c:v>37646.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>38025.0</c:v>
+                  <c:v>38035.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>38416.0</c:v>
+                  <c:v>38426.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>38809.0</c:v>
+                  <c:v>38819.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>39204.0</c:v>
+                  <c:v>39214.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>39601.0</c:v>
+                  <c:v>39611.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>40000.0</c:v>
+                  <c:v>40010.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>40401.0</c:v>
+                  <c:v>40411.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>40804.0</c:v>
+                  <c:v>40814.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>41209.0</c:v>
+                  <c:v>41219.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>41616.0</c:v>
+                  <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>42025.0</c:v>
+                  <c:v>42035.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>42436.0</c:v>
+                  <c:v>42446.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>42849.0</c:v>
+                  <c:v>42859.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>43264.0</c:v>
+                  <c:v>43274.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>43681.0</c:v>
+                  <c:v>43691.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>44100.0</c:v>
+                  <c:v>44110.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>44521.0</c:v>
+                  <c:v>44531.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>44944.0</c:v>
+                  <c:v>44954.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>45369.0</c:v>
+                  <c:v>45379.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>45796.0</c:v>
+                  <c:v>45806.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>46225.0</c:v>
+                  <c:v>46235.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>46656.0</c:v>
+                  <c:v>46666.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>47089.0</c:v>
+                  <c:v>47099.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>47524.0</c:v>
+                  <c:v>47534.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>47961.0</c:v>
+                  <c:v>47971.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>48400.0</c:v>
+                  <c:v>48410.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>48841.0</c:v>
+                  <c:v>48851.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>49284.0</c:v>
+                  <c:v>49294.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>49729.0</c:v>
+                  <c:v>49739.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>50176.0</c:v>
+                  <c:v>50186.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>50625.0</c:v>
+                  <c:v>50635.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>51076.0</c:v>
+                  <c:v>51086.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>51529.0</c:v>
+                  <c:v>51539.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>51984.0</c:v>
+                  <c:v>51994.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>52441.0</c:v>
+                  <c:v>52451.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>52900.0</c:v>
+                  <c:v>52910.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>53361.0</c:v>
+                  <c:v>53371.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>53824.0</c:v>
+                  <c:v>53834.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>54289.0</c:v>
+                  <c:v>54299.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>54756.0</c:v>
+                  <c:v>54766.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>55225.0</c:v>
+                  <c:v>55235.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>55696.0</c:v>
+                  <c:v>55706.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>56169.0</c:v>
+                  <c:v>56179.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>56644.0</c:v>
+                  <c:v>56654.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>57121.0</c:v>
+                  <c:v>57131.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>57600.0</c:v>
+                  <c:v>57610.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>58081.0</c:v>
+                  <c:v>58091.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>58564.0</c:v>
+                  <c:v>58574.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>59049.0</c:v>
+                  <c:v>59059.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>59536.0</c:v>
+                  <c:v>59546.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>60025.0</c:v>
+                  <c:v>60035.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>60516.0</c:v>
+                  <c:v>60526.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>61009.0</c:v>
+                  <c:v>61019.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>61504.0</c:v>
+                  <c:v>61514.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>62001.0</c:v>
+                  <c:v>62011.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>62500.0</c:v>
+                  <c:v>62510.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>63001.0</c:v>
+                  <c:v>63011.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>63504.0</c:v>
+                  <c:v>63514.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>64009.0</c:v>
+                  <c:v>64019.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>64516.0</c:v>
+                  <c:v>64526.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>65025.0</c:v>
+                  <c:v>65035.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>65536.0</c:v>
+                  <c:v>65546.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>66049.0</c:v>
+                  <c:v>66059.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>66564.0</c:v>
+                  <c:v>66574.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>67081.0</c:v>
+                  <c:v>67091.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>67600.0</c:v>
+                  <c:v>67610.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>68121.0</c:v>
+                  <c:v>68131.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>68644.0</c:v>
+                  <c:v>68654.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>69169.0</c:v>
+                  <c:v>69179.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>69696.0</c:v>
+                  <c:v>69706.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>70225.0</c:v>
+                  <c:v>70235.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>70756.0</c:v>
+                  <c:v>70766.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>71289.0</c:v>
+                  <c:v>71299.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>71824.0</c:v>
+                  <c:v>71834.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>72361.0</c:v>
+                  <c:v>72371.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>72900.0</c:v>
+                  <c:v>72910.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>73441.0</c:v>
+                  <c:v>73451.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>73984.0</c:v>
+                  <c:v>73994.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>74529.0</c:v>
+                  <c:v>74539.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>75076.0</c:v>
+                  <c:v>75086.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>75625.0</c:v>
+                  <c:v>75635.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>76176.0</c:v>
+                  <c:v>76186.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>76729.0</c:v>
+                  <c:v>76739.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>77284.0</c:v>
+                  <c:v>77294.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>77841.0</c:v>
+                  <c:v>77851.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>78400.0</c:v>
+                  <c:v>78410.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>78961.0</c:v>
+                  <c:v>78971.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>79524.0</c:v>
+                  <c:v>79534.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>80089.0</c:v>
+                  <c:v>80099.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>80656.0</c:v>
+                  <c:v>80666.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>81225.0</c:v>
+                  <c:v>81235.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>81796.0</c:v>
+                  <c:v>81806.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>82369.0</c:v>
+                  <c:v>82379.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>82944.0</c:v>
+                  <c:v>82954.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>83521.0</c:v>
+                  <c:v>83531.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>84100.0</c:v>
+                  <c:v>84110.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>84681.0</c:v>
+                  <c:v>84691.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>85264.0</c:v>
+                  <c:v>85274.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>85849.0</c:v>
+                  <c:v>85859.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>86436.0</c:v>
+                  <c:v>86446.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>87025.0</c:v>
+                  <c:v>87035.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>87616.0</c:v>
+                  <c:v>87626.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>88209.0</c:v>
+                  <c:v>88219.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>88804.0</c:v>
+                  <c:v>88814.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>89401.0</c:v>
+                  <c:v>89411.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>90000.0</c:v>
+                  <c:v>90010.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>90601.0</c:v>
+                  <c:v>90611.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>91204.0</c:v>
+                  <c:v>91214.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>91809.0</c:v>
+                  <c:v>91819.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>92416.0</c:v>
+                  <c:v>92426.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>93025.0</c:v>
+                  <c:v>93035.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>93636.0</c:v>
+                  <c:v>93646.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>94249.0</c:v>
+                  <c:v>94259.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>94864.0</c:v>
+                  <c:v>94874.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>95481.0</c:v>
+                  <c:v>95491.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>96100.0</c:v>
+                  <c:v>96110.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>96721.0</c:v>
+                  <c:v>96731.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>97344.0</c:v>
+                  <c:v>97354.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>97969.0</c:v>
+                  <c:v>97979.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>98596.0</c:v>
+                  <c:v>98606.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>99225.0</c:v>
+                  <c:v>99235.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>99856.0</c:v>
+                  <c:v>99866.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>100489.0</c:v>
+                  <c:v>100499.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>101124.0</c:v>
+                  <c:v>101134.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>101761.0</c:v>
+                  <c:v>101771.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>102400.0</c:v>
+                  <c:v>102410.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>103041.0</c:v>
+                  <c:v>103051.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>103684.0</c:v>
+                  <c:v>103694.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>104329.0</c:v>
+                  <c:v>104339.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>104976.0</c:v>
+                  <c:v>104986.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>105625.0</c:v>
+                  <c:v>105635.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>106276.0</c:v>
+                  <c:v>106286.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>106929.0</c:v>
+                  <c:v>106939.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>107584.0</c:v>
+                  <c:v>107594.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>108241.0</c:v>
+                  <c:v>108251.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>108900.0</c:v>
+                  <c:v>108910.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>109561.0</c:v>
+                  <c:v>109571.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>110224.0</c:v>
+                  <c:v>110234.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>110889.0</c:v>
+                  <c:v>110899.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>111556.0</c:v>
+                  <c:v>111566.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>112225.0</c:v>
+                  <c:v>112235.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>112896.0</c:v>
+                  <c:v>112906.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>113569.0</c:v>
+                  <c:v>113579.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>114244.0</c:v>
+                  <c:v>114254.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>114921.0</c:v>
+                  <c:v>114931.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>115600.0</c:v>
+                  <c:v>115610.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>116281.0</c:v>
+                  <c:v>116291.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>116964.0</c:v>
+                  <c:v>116974.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>117649.0</c:v>
+                  <c:v>117659.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>118336.0</c:v>
+                  <c:v>118346.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>119025.0</c:v>
+                  <c:v>119035.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>119716.0</c:v>
+                  <c:v>119726.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>120409.0</c:v>
+                  <c:v>120419.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>121104.0</c:v>
+                  <c:v>121114.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>121801.0</c:v>
+                  <c:v>121811.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>122500.0</c:v>
+                  <c:v>122510.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>123201.0</c:v>
+                  <c:v>123211.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>123904.0</c:v>
+                  <c:v>123914.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>124609.0</c:v>
+                  <c:v>124619.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>125316.0</c:v>
+                  <c:v>125326.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>126025.0</c:v>
+                  <c:v>126035.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>126736.0</c:v>
+                  <c:v>126746.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>127449.0</c:v>
+                  <c:v>127459.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>128164.0</c:v>
+                  <c:v>128174.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>128881.0</c:v>
+                  <c:v>128891.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>129600.0</c:v>
+                  <c:v>129610.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>130321.0</c:v>
+                  <c:v>130331.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>131044.0</c:v>
+                  <c:v>131054.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>131769.0</c:v>
+                  <c:v>131779.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>132496.0</c:v>
+                  <c:v>132506.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>133225.0</c:v>
+                  <c:v>133235.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>133956.0</c:v>
+                  <c:v>133966.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>134689.0</c:v>
+                  <c:v>134699.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>135424.0</c:v>
+                  <c:v>135434.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>136161.0</c:v>
+                  <c:v>136171.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>136900.0</c:v>
+                  <c:v>136910.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>137641.0</c:v>
+                  <c:v>137651.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>138384.0</c:v>
+                  <c:v>138394.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>139129.0</c:v>
+                  <c:v>139139.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>139876.0</c:v>
+                  <c:v>139886.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>140625.0</c:v>
+                  <c:v>140635.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>141376.0</c:v>
+                  <c:v>141386.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>142129.0</c:v>
+                  <c:v>142139.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>142884.0</c:v>
+                  <c:v>142894.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>143641.0</c:v>
+                  <c:v>143651.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>144400.0</c:v>
+                  <c:v>144410.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>145161.0</c:v>
+                  <c:v>145171.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>145924.0</c:v>
+                  <c:v>145934.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>146689.0</c:v>
+                  <c:v>146699.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>147456.0</c:v>
+                  <c:v>147466.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>148225.0</c:v>
+                  <c:v>148235.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>148996.0</c:v>
+                  <c:v>149006.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>149769.0</c:v>
+                  <c:v>149779.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>150544.0</c:v>
+                  <c:v>150554.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>151321.0</c:v>
+                  <c:v>151331.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>152100.0</c:v>
+                  <c:v>152110.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>152881.0</c:v>
+                  <c:v>152891.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>153664.0</c:v>
+                  <c:v>153674.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>154449.0</c:v>
+                  <c:v>154459.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>155236.0</c:v>
+                  <c:v>155246.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>156025.0</c:v>
+                  <c:v>156035.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>156816.0</c:v>
+                  <c:v>156826.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>157609.0</c:v>
+                  <c:v>157619.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>158404.0</c:v>
+                  <c:v>158414.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>159201.0</c:v>
+                  <c:v>159211.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>160000.0</c:v>
+                  <c:v>160010.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>160801.0</c:v>
+                  <c:v>160811.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>161604.0</c:v>
+                  <c:v>161614.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>162409.0</c:v>
+                  <c:v>162419.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>163216.0</c:v>
+                  <c:v>163226.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>164025.0</c:v>
+                  <c:v>164035.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>164836.0</c:v>
+                  <c:v>164846.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>165649.0</c:v>
+                  <c:v>165659.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>166464.0</c:v>
+                  <c:v>166474.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>167281.0</c:v>
+                  <c:v>167291.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>168100.0</c:v>
+                  <c:v>168110.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>168921.0</c:v>
+                  <c:v>168931.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>169744.0</c:v>
+                  <c:v>169754.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>170569.0</c:v>
+                  <c:v>170579.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>171396.0</c:v>
+                  <c:v>171406.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>172225.0</c:v>
+                  <c:v>172235.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>173056.0</c:v>
+                  <c:v>173066.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>173889.0</c:v>
+                  <c:v>173899.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>174724.0</c:v>
+                  <c:v>174734.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>175561.0</c:v>
+                  <c:v>175571.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>176400.0</c:v>
+                  <c:v>176410.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>177241.0</c:v>
+                  <c:v>177251.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>178084.0</c:v>
+                  <c:v>178094.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>178929.0</c:v>
+                  <c:v>178939.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>179776.0</c:v>
+                  <c:v>179786.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>180625.0</c:v>
+                  <c:v>180635.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>181476.0</c:v>
+                  <c:v>181486.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>182329.0</c:v>
+                  <c:v>182339.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>183184.0</c:v>
+                  <c:v>183194.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>184041.0</c:v>
+                  <c:v>184051.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>184900.0</c:v>
+                  <c:v>184910.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>185761.0</c:v>
+                  <c:v>185771.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>186624.0</c:v>
+                  <c:v>186634.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>187489.0</c:v>
+                  <c:v>187499.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>188356.0</c:v>
+                  <c:v>188366.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>189225.0</c:v>
+                  <c:v>189235.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>190096.0</c:v>
+                  <c:v>190106.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>190969.0</c:v>
+                  <c:v>190979.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>191844.0</c:v>
+                  <c:v>191854.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>192721.0</c:v>
+                  <c:v>192731.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>193600.0</c:v>
+                  <c:v>193610.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>194481.0</c:v>
+                  <c:v>194491.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>195364.0</c:v>
+                  <c:v>195374.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>196249.0</c:v>
+                  <c:v>196259.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>197136.0</c:v>
+                  <c:v>197146.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>198025.0</c:v>
+                  <c:v>198035.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>198916.0</c:v>
+                  <c:v>198926.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>199809.0</c:v>
+                  <c:v>199819.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>200704.0</c:v>
+                  <c:v>200714.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>201601.0</c:v>
+                  <c:v>201611.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>202500.0</c:v>
+                  <c:v>202510.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>203401.0</c:v>
+                  <c:v>203411.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>204304.0</c:v>
+                  <c:v>204314.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>205209.0</c:v>
+                  <c:v>205219.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>206116.0</c:v>
+                  <c:v>206126.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>207025.0</c:v>
+                  <c:v>207035.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>207936.0</c:v>
+                  <c:v>207946.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>208849.0</c:v>
+                  <c:v>208859.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>209764.0</c:v>
+                  <c:v>209774.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>210681.0</c:v>
+                  <c:v>210691.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>211600.0</c:v>
+                  <c:v>211610.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>212521.0</c:v>
+                  <c:v>212531.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>213444.0</c:v>
+                  <c:v>213454.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>214369.0</c:v>
+                  <c:v>214379.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>215296.0</c:v>
+                  <c:v>215306.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>216225.0</c:v>
+                  <c:v>216235.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>217156.0</c:v>
+                  <c:v>217166.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>218089.0</c:v>
+                  <c:v>218099.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>219024.0</c:v>
+                  <c:v>219034.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>219961.0</c:v>
+                  <c:v>219971.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>220900.0</c:v>
+                  <c:v>220910.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>221841.0</c:v>
+                  <c:v>221851.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>222784.0</c:v>
+                  <c:v>222794.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>223729.0</c:v>
+                  <c:v>223739.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>224676.0</c:v>
+                  <c:v>224686.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>225625.0</c:v>
+                  <c:v>225635.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>226576.0</c:v>
+                  <c:v>226586.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>227529.0</c:v>
+                  <c:v>227539.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>228484.0</c:v>
+                  <c:v>228494.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>229441.0</c:v>
+                  <c:v>229451.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>230400.0</c:v>
+                  <c:v>230410.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>231361.0</c:v>
+                  <c:v>231371.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>232324.0</c:v>
+                  <c:v>232334.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>233289.0</c:v>
+                  <c:v>233299.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>234256.0</c:v>
+                  <c:v>234266.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>235225.0</c:v>
+                  <c:v>235235.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>236196.0</c:v>
+                  <c:v>236206.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>237169.0</c:v>
+                  <c:v>237179.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>238144.0</c:v>
+                  <c:v>238154.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>239121.0</c:v>
+                  <c:v>239131.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>240100.0</c:v>
+                  <c:v>240110.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>241081.0</c:v>
+                  <c:v>241091.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>242064.0</c:v>
+                  <c:v>242074.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>243049.0</c:v>
+                  <c:v>243059.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>244036.0</c:v>
+                  <c:v>244046.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>245025.0</c:v>
+                  <c:v>245035.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>246016.0</c:v>
+                  <c:v>246026.0</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>247009.0</c:v>
+                  <c:v>247019.0</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>248004.0</c:v>
+                  <c:v>248014.0</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>249001.0</c:v>
+                  <c:v>249011.0</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>250000.0</c:v>
+                  <c:v>250010.0</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>251001.0</c:v>
+                  <c:v>251011.0</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>252004.0</c:v>
+                  <c:v>252014.0</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>253009.0</c:v>
+                  <c:v>253019.0</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>254016.0</c:v>
+                  <c:v>254026.0</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>255025.0</c:v>
+                  <c:v>255035.0</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>256036.0</c:v>
+                  <c:v>256046.0</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>257049.0</c:v>
+                  <c:v>257059.0</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>258064.0</c:v>
+                  <c:v>258074.0</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>259081.0</c:v>
+                  <c:v>259091.0</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>260100.0</c:v>
+                  <c:v>260110.0</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>261121.0</c:v>
+                  <c:v>261131.0</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>262144.0</c:v>
+                  <c:v>262154.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-760090112"/>
-        <c:axId val="-760085456"/>
+        <c:axId val="280178288"/>
+        <c:axId val="280182848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-760090112"/>
+        <c:axId val="280178288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,12 +6477,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-760085456"/>
+        <c:crossAx val="280182848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-760085456"/>
+        <c:axId val="280182848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-760090112"/>
+        <c:crossAx val="280178288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7476,7 +7476,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7500,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="F1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="C2">
         <f ca="1">1*INDIRECT(B2)+2*A2-1</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <f>2000*A2</f>
@@ -7530,7 +7530,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="1">1*INDIRECT(B3)+2*A3-1</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D66" si="2">2000*A3</f>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
@@ -7598,7 +7598,7 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
@@ -7632,7 +7632,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
@@ -7683,7 +7683,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
@@ -7717,7 +7717,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="1"/>
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
@@ -7734,7 +7734,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
@@ -7751,7 +7751,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="1"/>
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="1"/>
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
@@ -7802,7 +7802,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="1"/>
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
@@ -7819,7 +7819,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="1"/>
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
@@ -7836,7 +7836,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="1"/>
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="1"/>
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
@@ -7870,7 +7870,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="1"/>
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
@@ -7887,7 +7887,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="1"/>
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
@@ -7904,7 +7904,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
@@ -7921,7 +7921,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
@@ -7955,7 +7955,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
@@ -7972,7 +7972,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
@@ -7989,7 +7989,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
@@ -8023,7 +8023,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>961</v>
+        <v>971</v>
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
@@ -8040,7 +8040,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
@@ -8057,7 +8057,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
@@ -8091,7 +8091,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>1225</v>
+        <v>1235</v>
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
@@ -8125,7 +8125,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>1369</v>
+        <v>1379</v>
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>1444</v>
+        <v>1454</v>
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>1521</v>
+        <v>1531</v>
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
@@ -8176,7 +8176,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>1600</v>
+        <v>1610</v>
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
@@ -8193,7 +8193,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>1681</v>
+        <v>1691</v>
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
@@ -8210,7 +8210,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>1764</v>
+        <v>1774</v>
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>1849</v>
+        <v>1859</v>
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
@@ -8244,7 +8244,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>1936</v>
+        <v>1946</v>
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
@@ -8261,7 +8261,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
@@ -8278,7 +8278,7 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>2116</v>
+        <v>2126</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
@@ -8295,7 +8295,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>2209</v>
+        <v>2219</v>
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
@@ -8312,7 +8312,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>2304</v>
+        <v>2314</v>
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>2401</v>
+        <v>2411</v>
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>2500</v>
+        <v>2510</v>
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>2704</v>
+        <v>2714</v>
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>2809</v>
+        <v>2819</v>
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>2916</v>
+        <v>2926</v>
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
@@ -8431,7 +8431,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="1"/>
-        <v>3025</v>
+        <v>3035</v>
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="1"/>
-        <v>3136</v>
+        <v>3146</v>
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="1"/>
-        <v>3249</v>
+        <v>3259</v>
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
@@ -8482,7 +8482,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="1"/>
-        <v>3364</v>
+        <v>3374</v>
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="1"/>
-        <v>3481</v>
+        <v>3491</v>
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
@@ -8516,7 +8516,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="1"/>
-        <v>3600</v>
+        <v>3610</v>
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="1"/>
-        <v>3721</v>
+        <v>3731</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="1"/>
-        <v>3844</v>
+        <v>3854</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="1"/>
-        <v>3969</v>
+        <v>3979</v>
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
@@ -8584,7 +8584,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="1"/>
-        <v>4096</v>
+        <v>4106</v>
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="1"/>
-        <v>4225</v>
+        <v>4235</v>
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
@@ -8618,7 +8618,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" ca="1" si="4">1*INDIRECT(B67)+2*A67-1</f>
-        <v>4356</v>
+        <v>4366</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D130" si="5">2000*A67</f>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="4"/>
-        <v>4489</v>
+        <v>4499</v>
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
@@ -8652,7 +8652,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="4"/>
-        <v>4624</v>
+        <v>4634</v>
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="4"/>
-        <v>4761</v>
+        <v>4771</v>
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
@@ -8686,7 +8686,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="4"/>
-        <v>4900</v>
+        <v>4910</v>
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
@@ -8703,7 +8703,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="4"/>
-        <v>5041</v>
+        <v>5051</v>
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
@@ -8720,7 +8720,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="4"/>
-        <v>5184</v>
+        <v>5194</v>
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
@@ -8737,7 +8737,7 @@
       </c>
       <c r="C74">
         <f t="shared" ca="1" si="4"/>
-        <v>5329</v>
+        <v>5339</v>
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
@@ -8754,7 +8754,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="4"/>
-        <v>5476</v>
+        <v>5486</v>
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
@@ -8771,7 +8771,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="4"/>
-        <v>5625</v>
+        <v>5635</v>
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="4"/>
-        <v>5776</v>
+        <v>5786</v>
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="4"/>
-        <v>5929</v>
+        <v>5939</v>
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
@@ -8822,7 +8822,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="4"/>
-        <v>6084</v>
+        <v>6094</v>
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
@@ -8839,7 +8839,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="4"/>
-        <v>6241</v>
+        <v>6251</v>
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
@@ -8856,7 +8856,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="4"/>
-        <v>6400</v>
+        <v>6410</v>
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
@@ -8873,7 +8873,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="4"/>
-        <v>6561</v>
+        <v>6571</v>
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
@@ -8890,7 +8890,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="4"/>
-        <v>6724</v>
+        <v>6734</v>
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
@@ -8907,7 +8907,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="4"/>
-        <v>6889</v>
+        <v>6899</v>
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
@@ -8924,7 +8924,7 @@
       </c>
       <c r="C85">
         <f t="shared" ca="1" si="4"/>
-        <v>7056</v>
+        <v>7066</v>
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="4"/>
-        <v>7225</v>
+        <v>7235</v>
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="4"/>
-        <v>7396</v>
+        <v>7406</v>
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
@@ -8975,7 +8975,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="4"/>
-        <v>7569</v>
+        <v>7579</v>
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
@@ -8992,7 +8992,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="4"/>
-        <v>7744</v>
+        <v>7754</v>
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="4"/>
-        <v>7921</v>
+        <v>7931</v>
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
@@ -9026,7 +9026,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="4"/>
-        <v>8100</v>
+        <v>8110</v>
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
@@ -9043,7 +9043,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="4"/>
-        <v>8281</v>
+        <v>8291</v>
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
@@ -9060,7 +9060,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="4"/>
-        <v>8464</v>
+        <v>8474</v>
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
@@ -9077,7 +9077,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="4"/>
-        <v>8649</v>
+        <v>8659</v>
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="4"/>
-        <v>8836</v>
+        <v>8846</v>
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="4"/>
-        <v>9025</v>
+        <v>9035</v>
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="4"/>
-        <v>9216</v>
+        <v>9226</v>
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
@@ -9145,7 +9145,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="4"/>
-        <v>9409</v>
+        <v>9419</v>
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
@@ -9162,7 +9162,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="4"/>
-        <v>9604</v>
+        <v>9614</v>
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="4"/>
-        <v>9801</v>
+        <v>9811</v>
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="4"/>
-        <v>10000</v>
+        <v>10010</v>
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="4"/>
-        <v>10201</v>
+        <v>10211</v>
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="4"/>
-        <v>10404</v>
+        <v>10414</v>
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="4"/>
-        <v>10609</v>
+        <v>10619</v>
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
@@ -9264,7 +9264,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="4"/>
-        <v>10816</v>
+        <v>10826</v>
       </c>
       <c r="D105">
         <f t="shared" si="5"/>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="4"/>
-        <v>11025</v>
+        <v>11035</v>
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
@@ -9298,7 +9298,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="4"/>
-        <v>11236</v>
+        <v>11246</v>
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
@@ -9315,7 +9315,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="4"/>
-        <v>11449</v>
+        <v>11459</v>
       </c>
       <c r="D108">
         <f t="shared" si="5"/>
@@ -9332,7 +9332,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="4"/>
-        <v>11664</v>
+        <v>11674</v>
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="4"/>
-        <v>11881</v>
+        <v>11891</v>
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="C111">
         <f t="shared" ca="1" si="4"/>
-        <v>12100</v>
+        <v>12110</v>
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
@@ -9383,7 +9383,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="4"/>
-        <v>12321</v>
+        <v>12331</v>
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="4"/>
-        <v>12544</v>
+        <v>12554</v>
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C114">
         <f t="shared" ca="1" si="4"/>
-        <v>12769</v>
+        <v>12779</v>
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="4"/>
-        <v>12996</v>
+        <v>13006</v>
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
@@ -9451,7 +9451,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="4"/>
-        <v>13225</v>
+        <v>13235</v>
       </c>
       <c r="D116">
         <f t="shared" si="5"/>
@@ -9468,7 +9468,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="4"/>
-        <v>13456</v>
+        <v>13466</v>
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="4"/>
-        <v>13689</v>
+        <v>13699</v>
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
@@ -9502,7 +9502,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="4"/>
-        <v>13924</v>
+        <v>13934</v>
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
@@ -9519,7 +9519,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="4"/>
-        <v>14161</v>
+        <v>14171</v>
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
@@ -9536,7 +9536,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="4"/>
-        <v>14400</v>
+        <v>14410</v>
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="4"/>
-        <v>14641</v>
+        <v>14651</v>
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
@@ -9570,7 +9570,7 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="4"/>
-        <v>14884</v>
+        <v>14894</v>
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
@@ -9587,7 +9587,7 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="4"/>
-        <v>15129</v>
+        <v>15139</v>
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="4"/>
-        <v>15376</v>
+        <v>15386</v>
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="4"/>
-        <v>15625</v>
+        <v>15635</v>
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="4"/>
-        <v>15876</v>
+        <v>15886</v>
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="4"/>
-        <v>16129</v>
+        <v>16139</v>
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
@@ -9672,7 +9672,7 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="4"/>
-        <v>16384</v>
+        <v>16394</v>
       </c>
       <c r="D129">
         <f t="shared" si="5"/>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="4"/>
-        <v>16641</v>
+        <v>16651</v>
       </c>
       <c r="D130">
         <f t="shared" si="5"/>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" ca="1" si="7">1*INDIRECT(B131)+2*A131-1</f>
-        <v>16900</v>
+        <v>16910</v>
       </c>
       <c r="D131">
         <f t="shared" ref="D131:D194" si="8">2000*A131</f>
@@ -9723,7 +9723,7 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="7"/>
-        <v>17161</v>
+        <v>17171</v>
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
@@ -9740,7 +9740,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="7"/>
-        <v>17424</v>
+        <v>17434</v>
       </c>
       <c r="D133">
         <f t="shared" si="8"/>
@@ -9757,7 +9757,7 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="7"/>
-        <v>17689</v>
+        <v>17699</v>
       </c>
       <c r="D134">
         <f t="shared" si="8"/>
@@ -9774,7 +9774,7 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="7"/>
-        <v>17956</v>
+        <v>17966</v>
       </c>
       <c r="D135">
         <f t="shared" si="8"/>
@@ -9791,7 +9791,7 @@
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="7"/>
-        <v>18225</v>
+        <v>18235</v>
       </c>
       <c r="D136">
         <f t="shared" si="8"/>
@@ -9808,7 +9808,7 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="7"/>
-        <v>18496</v>
+        <v>18506</v>
       </c>
       <c r="D137">
         <f t="shared" si="8"/>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="7"/>
-        <v>18769</v>
+        <v>18779</v>
       </c>
       <c r="D138">
         <f t="shared" si="8"/>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="7"/>
-        <v>19044</v>
+        <v>19054</v>
       </c>
       <c r="D139">
         <f t="shared" si="8"/>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="7"/>
-        <v>19321</v>
+        <v>19331</v>
       </c>
       <c r="D140">
         <f t="shared" si="8"/>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="7"/>
-        <v>19600</v>
+        <v>19610</v>
       </c>
       <c r="D141">
         <f t="shared" si="8"/>
@@ -9893,7 +9893,7 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="7"/>
-        <v>19881</v>
+        <v>19891</v>
       </c>
       <c r="D142">
         <f t="shared" si="8"/>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="7"/>
-        <v>20164</v>
+        <v>20174</v>
       </c>
       <c r="D143">
         <f t="shared" si="8"/>
@@ -9927,7 +9927,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="7"/>
-        <v>20449</v>
+        <v>20459</v>
       </c>
       <c r="D144">
         <f t="shared" si="8"/>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="C145">
         <f t="shared" ca="1" si="7"/>
-        <v>20736</v>
+        <v>20746</v>
       </c>
       <c r="D145">
         <f t="shared" si="8"/>
@@ -9961,7 +9961,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="7"/>
-        <v>21025</v>
+        <v>21035</v>
       </c>
       <c r="D146">
         <f t="shared" si="8"/>
@@ -9978,7 +9978,7 @@
       </c>
       <c r="C147">
         <f t="shared" ca="1" si="7"/>
-        <v>21316</v>
+        <v>21326</v>
       </c>
       <c r="D147">
         <f t="shared" si="8"/>
@@ -9995,7 +9995,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="7"/>
-        <v>21609</v>
+        <v>21619</v>
       </c>
       <c r="D148">
         <f t="shared" si="8"/>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="7"/>
-        <v>21904</v>
+        <v>21914</v>
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="7"/>
-        <v>22201</v>
+        <v>22211</v>
       </c>
       <c r="D150">
         <f t="shared" si="8"/>
@@ -10046,7 +10046,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="7"/>
-        <v>22500</v>
+        <v>22510</v>
       </c>
       <c r="D151">
         <f t="shared" si="8"/>
@@ -10063,7 +10063,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="7"/>
-        <v>22801</v>
+        <v>22811</v>
       </c>
       <c r="D152">
         <f t="shared" si="8"/>
@@ -10080,7 +10080,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="7"/>
-        <v>23104</v>
+        <v>23114</v>
       </c>
       <c r="D153">
         <f t="shared" si="8"/>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="7"/>
-        <v>23409</v>
+        <v>23419</v>
       </c>
       <c r="D154">
         <f t="shared" si="8"/>
@@ -10114,7 +10114,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="7"/>
-        <v>23716</v>
+        <v>23726</v>
       </c>
       <c r="D155">
         <f t="shared" si="8"/>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="7"/>
-        <v>24025</v>
+        <v>24035</v>
       </c>
       <c r="D156">
         <f t="shared" si="8"/>
@@ -10148,7 +10148,7 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="7"/>
-        <v>24336</v>
+        <v>24346</v>
       </c>
       <c r="D157">
         <f t="shared" si="8"/>
@@ -10165,7 +10165,7 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="7"/>
-        <v>24649</v>
+        <v>24659</v>
       </c>
       <c r="D158">
         <f t="shared" si="8"/>
@@ -10182,7 +10182,7 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="7"/>
-        <v>24964</v>
+        <v>24974</v>
       </c>
       <c r="D159">
         <f t="shared" si="8"/>
@@ -10199,7 +10199,7 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="7"/>
-        <v>25281</v>
+        <v>25291</v>
       </c>
       <c r="D160">
         <f t="shared" si="8"/>
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="7"/>
-        <v>25600</v>
+        <v>25610</v>
       </c>
       <c r="D161">
         <f t="shared" si="8"/>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="7"/>
-        <v>25921</v>
+        <v>25931</v>
       </c>
       <c r="D162">
         <f t="shared" si="8"/>
@@ -10250,7 +10250,7 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="7"/>
-        <v>26244</v>
+        <v>26254</v>
       </c>
       <c r="D163">
         <f t="shared" si="8"/>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="7"/>
-        <v>26569</v>
+        <v>26579</v>
       </c>
       <c r="D164">
         <f t="shared" si="8"/>
@@ -10284,7 +10284,7 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="7"/>
-        <v>26896</v>
+        <v>26906</v>
       </c>
       <c r="D165">
         <f t="shared" si="8"/>
@@ -10301,7 +10301,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="7"/>
-        <v>27225</v>
+        <v>27235</v>
       </c>
       <c r="D166">
         <f t="shared" si="8"/>
@@ -10318,7 +10318,7 @@
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="7"/>
-        <v>27556</v>
+        <v>27566</v>
       </c>
       <c r="D167">
         <f t="shared" si="8"/>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="7"/>
-        <v>27889</v>
+        <v>27899</v>
       </c>
       <c r="D168">
         <f t="shared" si="8"/>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="7"/>
-        <v>28224</v>
+        <v>28234</v>
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
@@ -10369,7 +10369,7 @@
       </c>
       <c r="C170">
         <f t="shared" ca="1" si="7"/>
-        <v>28561</v>
+        <v>28571</v>
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
@@ -10386,7 +10386,7 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="7"/>
-        <v>28900</v>
+        <v>28910</v>
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="C172">
         <f t="shared" ca="1" si="7"/>
-        <v>29241</v>
+        <v>29251</v>
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
@@ -10420,7 +10420,7 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="7"/>
-        <v>29584</v>
+        <v>29594</v>
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
@@ -10437,7 +10437,7 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="7"/>
-        <v>29929</v>
+        <v>29939</v>
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
@@ -10454,7 +10454,7 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="7"/>
-        <v>30276</v>
+        <v>30286</v>
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="7"/>
-        <v>30625</v>
+        <v>30635</v>
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="7"/>
-        <v>30976</v>
+        <v>30986</v>
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="C178">
         <f t="shared" ca="1" si="7"/>
-        <v>31329</v>
+        <v>31339</v>
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
@@ -10522,7 +10522,7 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="7"/>
-        <v>31684</v>
+        <v>31694</v>
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
@@ -10539,7 +10539,7 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="7"/>
-        <v>32041</v>
+        <v>32051</v>
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="7"/>
-        <v>32400</v>
+        <v>32410</v>
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="7"/>
-        <v>32761</v>
+        <v>32771</v>
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
@@ -10590,7 +10590,7 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="7"/>
-        <v>33124</v>
+        <v>33134</v>
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
@@ -10607,7 +10607,7 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="7"/>
-        <v>33489</v>
+        <v>33499</v>
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
@@ -10624,7 +10624,7 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="7"/>
-        <v>33856</v>
+        <v>33866</v>
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="7"/>
-        <v>34225</v>
+        <v>34235</v>
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="7"/>
-        <v>34596</v>
+        <v>34606</v>
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="7"/>
-        <v>34969</v>
+        <v>34979</v>
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
@@ -10692,7 +10692,7 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="7"/>
-        <v>35344</v>
+        <v>35354</v>
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="7"/>
-        <v>35721</v>
+        <v>35731</v>
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
@@ -10726,7 +10726,7 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="7"/>
-        <v>36100</v>
+        <v>36110</v>
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="7"/>
-        <v>36481</v>
+        <v>36491</v>
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
@@ -10760,7 +10760,7 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="7"/>
-        <v>36864</v>
+        <v>36874</v>
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="C194">
         <f t="shared" ca="1" si="7"/>
-        <v>37249</v>
+        <v>37259</v>
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
@@ -10794,7 +10794,7 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" ca="1" si="10">1*INDIRECT(B195)+2*A195-1</f>
-        <v>37636</v>
+        <v>37646</v>
       </c>
       <c r="D195">
         <f t="shared" ref="D195:D258" si="11">2000*A195</f>
@@ -10811,7 +10811,7 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="10"/>
-        <v>38025</v>
+        <v>38035</v>
       </c>
       <c r="D196">
         <f t="shared" si="11"/>
@@ -10828,7 +10828,7 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="10"/>
-        <v>38416</v>
+        <v>38426</v>
       </c>
       <c r="D197">
         <f t="shared" si="11"/>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="10"/>
-        <v>38809</v>
+        <v>38819</v>
       </c>
       <c r="D198">
         <f t="shared" si="11"/>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="C199">
         <f t="shared" ca="1" si="10"/>
-        <v>39204</v>
+        <v>39214</v>
       </c>
       <c r="D199">
         <f t="shared" si="11"/>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="10"/>
-        <v>39601</v>
+        <v>39611</v>
       </c>
       <c r="D200">
         <f t="shared" si="11"/>
@@ -10896,7 +10896,7 @@
       </c>
       <c r="C201">
         <f t="shared" ca="1" si="10"/>
-        <v>40000</v>
+        <v>40010</v>
       </c>
       <c r="D201">
         <f t="shared" si="11"/>
@@ -10913,7 +10913,7 @@
       </c>
       <c r="C202">
         <f t="shared" ca="1" si="10"/>
-        <v>40401</v>
+        <v>40411</v>
       </c>
       <c r="D202">
         <f t="shared" si="11"/>
@@ -10930,7 +10930,7 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="10"/>
-        <v>40804</v>
+        <v>40814</v>
       </c>
       <c r="D203">
         <f t="shared" si="11"/>
@@ -10947,7 +10947,7 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="10"/>
-        <v>41209</v>
+        <v>41219</v>
       </c>
       <c r="D204">
         <f t="shared" si="11"/>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="C205">
         <f t="shared" ca="1" si="10"/>
-        <v>41616</v>
+        <v>41626</v>
       </c>
       <c r="D205">
         <f t="shared" si="11"/>
@@ -10981,7 +10981,7 @@
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="10"/>
-        <v>42025</v>
+        <v>42035</v>
       </c>
       <c r="D206">
         <f t="shared" si="11"/>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="10"/>
-        <v>42436</v>
+        <v>42446</v>
       </c>
       <c r="D207">
         <f t="shared" si="11"/>
@@ -11015,7 +11015,7 @@
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="10"/>
-        <v>42849</v>
+        <v>42859</v>
       </c>
       <c r="D208">
         <f t="shared" si="11"/>
@@ -11032,7 +11032,7 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="10"/>
-        <v>43264</v>
+        <v>43274</v>
       </c>
       <c r="D209">
         <f t="shared" si="11"/>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="10"/>
-        <v>43681</v>
+        <v>43691</v>
       </c>
       <c r="D210">
         <f t="shared" si="11"/>
@@ -11066,7 +11066,7 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="10"/>
-        <v>44100</v>
+        <v>44110</v>
       </c>
       <c r="D211">
         <f t="shared" si="11"/>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="10"/>
-        <v>44521</v>
+        <v>44531</v>
       </c>
       <c r="D212">
         <f t="shared" si="11"/>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="C213">
         <f t="shared" ca="1" si="10"/>
-        <v>44944</v>
+        <v>44954</v>
       </c>
       <c r="D213">
         <f t="shared" si="11"/>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="10"/>
-        <v>45369</v>
+        <v>45379</v>
       </c>
       <c r="D214">
         <f t="shared" si="11"/>
@@ -11134,7 +11134,7 @@
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="10"/>
-        <v>45796</v>
+        <v>45806</v>
       </c>
       <c r="D215">
         <f t="shared" si="11"/>
@@ -11151,7 +11151,7 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="10"/>
-        <v>46225</v>
+        <v>46235</v>
       </c>
       <c r="D216">
         <f t="shared" si="11"/>
@@ -11168,7 +11168,7 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="10"/>
-        <v>46656</v>
+        <v>46666</v>
       </c>
       <c r="D217">
         <f t="shared" si="11"/>
@@ -11185,7 +11185,7 @@
       </c>
       <c r="C218">
         <f t="shared" ca="1" si="10"/>
-        <v>47089</v>
+        <v>47099</v>
       </c>
       <c r="D218">
         <f t="shared" si="11"/>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="10"/>
-        <v>47524</v>
+        <v>47534</v>
       </c>
       <c r="D219">
         <f t="shared" si="11"/>
@@ -11219,7 +11219,7 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="10"/>
-        <v>47961</v>
+        <v>47971</v>
       </c>
       <c r="D220">
         <f t="shared" si="11"/>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="10"/>
-        <v>48400</v>
+        <v>48410</v>
       </c>
       <c r="D221">
         <f t="shared" si="11"/>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="10"/>
-        <v>48841</v>
+        <v>48851</v>
       </c>
       <c r="D222">
         <f t="shared" si="11"/>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="C223">
         <f t="shared" ca="1" si="10"/>
-        <v>49284</v>
+        <v>49294</v>
       </c>
       <c r="D223">
         <f t="shared" si="11"/>
@@ -11287,7 +11287,7 @@
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="10"/>
-        <v>49729</v>
+        <v>49739</v>
       </c>
       <c r="D224">
         <f t="shared" si="11"/>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="10"/>
-        <v>50176</v>
+        <v>50186</v>
       </c>
       <c r="D225">
         <f t="shared" si="11"/>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="10"/>
-        <v>50625</v>
+        <v>50635</v>
       </c>
       <c r="D226">
         <f t="shared" si="11"/>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="10"/>
-        <v>51076</v>
+        <v>51086</v>
       </c>
       <c r="D227">
         <f t="shared" si="11"/>
@@ -11355,7 +11355,7 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="10"/>
-        <v>51529</v>
+        <v>51539</v>
       </c>
       <c r="D228">
         <f t="shared" si="11"/>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="10"/>
-        <v>51984</v>
+        <v>51994</v>
       </c>
       <c r="D229">
         <f t="shared" si="11"/>
@@ -11389,7 +11389,7 @@
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="10"/>
-        <v>52441</v>
+        <v>52451</v>
       </c>
       <c r="D230">
         <f t="shared" si="11"/>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="10"/>
-        <v>52900</v>
+        <v>52910</v>
       </c>
       <c r="D231">
         <f t="shared" si="11"/>
@@ -11423,7 +11423,7 @@
       </c>
       <c r="C232">
         <f t="shared" ca="1" si="10"/>
-        <v>53361</v>
+        <v>53371</v>
       </c>
       <c r="D232">
         <f t="shared" si="11"/>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="10"/>
-        <v>53824</v>
+        <v>53834</v>
       </c>
       <c r="D233">
         <f t="shared" si="11"/>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="10"/>
-        <v>54289</v>
+        <v>54299</v>
       </c>
       <c r="D234">
         <f t="shared" si="11"/>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="10"/>
-        <v>54756</v>
+        <v>54766</v>
       </c>
       <c r="D235">
         <f t="shared" si="11"/>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="10"/>
-        <v>55225</v>
+        <v>55235</v>
       </c>
       <c r="D236">
         <f t="shared" si="11"/>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="10"/>
-        <v>55696</v>
+        <v>55706</v>
       </c>
       <c r="D237">
         <f t="shared" si="11"/>
@@ -11525,7 +11525,7 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="10"/>
-        <v>56169</v>
+        <v>56179</v>
       </c>
       <c r="D238">
         <f t="shared" si="11"/>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="10"/>
-        <v>56644</v>
+        <v>56654</v>
       </c>
       <c r="D239">
         <f t="shared" si="11"/>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="10"/>
-        <v>57121</v>
+        <v>57131</v>
       </c>
       <c r="D240">
         <f t="shared" si="11"/>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="10"/>
-        <v>57600</v>
+        <v>57610</v>
       </c>
       <c r="D241">
         <f t="shared" si="11"/>
@@ -11593,7 +11593,7 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="10"/>
-        <v>58081</v>
+        <v>58091</v>
       </c>
       <c r="D242">
         <f t="shared" si="11"/>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="10"/>
-        <v>58564</v>
+        <v>58574</v>
       </c>
       <c r="D243">
         <f t="shared" si="11"/>
@@ -11627,7 +11627,7 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="10"/>
-        <v>59049</v>
+        <v>59059</v>
       </c>
       <c r="D244">
         <f t="shared" si="11"/>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="10"/>
-        <v>59536</v>
+        <v>59546</v>
       </c>
       <c r="D245">
         <f t="shared" si="11"/>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="10"/>
-        <v>60025</v>
+        <v>60035</v>
       </c>
       <c r="D246">
         <f t="shared" si="11"/>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="10"/>
-        <v>60516</v>
+        <v>60526</v>
       </c>
       <c r="D247">
         <f t="shared" si="11"/>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="10"/>
-        <v>61009</v>
+        <v>61019</v>
       </c>
       <c r="D248">
         <f t="shared" si="11"/>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="10"/>
-        <v>61504</v>
+        <v>61514</v>
       </c>
       <c r="D249">
         <f t="shared" si="11"/>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="10"/>
-        <v>62001</v>
+        <v>62011</v>
       </c>
       <c r="D250">
         <f t="shared" si="11"/>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="10"/>
-        <v>62500</v>
+        <v>62510</v>
       </c>
       <c r="D251">
         <f t="shared" si="11"/>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="10"/>
-        <v>63001</v>
+        <v>63011</v>
       </c>
       <c r="D252">
         <f t="shared" si="11"/>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="10"/>
-        <v>63504</v>
+        <v>63514</v>
       </c>
       <c r="D253">
         <f t="shared" si="11"/>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="10"/>
-        <v>64009</v>
+        <v>64019</v>
       </c>
       <c r="D254">
         <f t="shared" si="11"/>
@@ -11814,7 +11814,7 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="10"/>
-        <v>64516</v>
+        <v>64526</v>
       </c>
       <c r="D255">
         <f t="shared" si="11"/>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="10"/>
-        <v>65025</v>
+        <v>65035</v>
       </c>
       <c r="D256">
         <f t="shared" si="11"/>
@@ -11848,7 +11848,7 @@
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="10"/>
-        <v>65536</v>
+        <v>65546</v>
       </c>
       <c r="D257">
         <f t="shared" si="11"/>
@@ -11865,7 +11865,7 @@
       </c>
       <c r="C258">
         <f t="shared" ca="1" si="10"/>
-        <v>66049</v>
+        <v>66059</v>
       </c>
       <c r="D258">
         <f t="shared" si="11"/>
@@ -11882,7 +11882,7 @@
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" ca="1" si="13">1*INDIRECT(B259)+2*A259-1</f>
-        <v>66564</v>
+        <v>66574</v>
       </c>
       <c r="D259">
         <f t="shared" ref="D259:D322" si="14">2000*A259</f>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="13"/>
-        <v>67081</v>
+        <v>67091</v>
       </c>
       <c r="D260">
         <f t="shared" si="14"/>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="13"/>
-        <v>67600</v>
+        <v>67610</v>
       </c>
       <c r="D261">
         <f t="shared" si="14"/>
@@ -11933,7 +11933,7 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="13"/>
-        <v>68121</v>
+        <v>68131</v>
       </c>
       <c r="D262">
         <f t="shared" si="14"/>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="13"/>
-        <v>68644</v>
+        <v>68654</v>
       </c>
       <c r="D263">
         <f t="shared" si="14"/>
@@ -11967,7 +11967,7 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="13"/>
-        <v>69169</v>
+        <v>69179</v>
       </c>
       <c r="D264">
         <f t="shared" si="14"/>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="13"/>
-        <v>69696</v>
+        <v>69706</v>
       </c>
       <c r="D265">
         <f t="shared" si="14"/>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="13"/>
-        <v>70225</v>
+        <v>70235</v>
       </c>
       <c r="D266">
         <f t="shared" si="14"/>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="13"/>
-        <v>70756</v>
+        <v>70766</v>
       </c>
       <c r="D267">
         <f t="shared" si="14"/>
@@ -12035,7 +12035,7 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="13"/>
-        <v>71289</v>
+        <v>71299</v>
       </c>
       <c r="D268">
         <f t="shared" si="14"/>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="13"/>
-        <v>71824</v>
+        <v>71834</v>
       </c>
       <c r="D269">
         <f t="shared" si="14"/>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="13"/>
-        <v>72361</v>
+        <v>72371</v>
       </c>
       <c r="D270">
         <f t="shared" si="14"/>
@@ -12086,7 +12086,7 @@
       </c>
       <c r="C271">
         <f t="shared" ca="1" si="13"/>
-        <v>72900</v>
+        <v>72910</v>
       </c>
       <c r="D271">
         <f t="shared" si="14"/>
@@ -12103,7 +12103,7 @@
       </c>
       <c r="C272">
         <f t="shared" ca="1" si="13"/>
-        <v>73441</v>
+        <v>73451</v>
       </c>
       <c r="D272">
         <f t="shared" si="14"/>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="13"/>
-        <v>73984</v>
+        <v>73994</v>
       </c>
       <c r="D273">
         <f t="shared" si="14"/>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="13"/>
-        <v>74529</v>
+        <v>74539</v>
       </c>
       <c r="D274">
         <f t="shared" si="14"/>
@@ -12154,7 +12154,7 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="13"/>
-        <v>75076</v>
+        <v>75086</v>
       </c>
       <c r="D275">
         <f t="shared" si="14"/>
@@ -12171,7 +12171,7 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="13"/>
-        <v>75625</v>
+        <v>75635</v>
       </c>
       <c r="D276">
         <f t="shared" si="14"/>
@@ -12188,7 +12188,7 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="13"/>
-        <v>76176</v>
+        <v>76186</v>
       </c>
       <c r="D277">
         <f t="shared" si="14"/>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="13"/>
-        <v>76729</v>
+        <v>76739</v>
       </c>
       <c r="D278">
         <f t="shared" si="14"/>
@@ -12222,7 +12222,7 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="13"/>
-        <v>77284</v>
+        <v>77294</v>
       </c>
       <c r="D279">
         <f t="shared" si="14"/>
@@ -12239,7 +12239,7 @@
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="13"/>
-        <v>77841</v>
+        <v>77851</v>
       </c>
       <c r="D280">
         <f t="shared" si="14"/>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="13"/>
-        <v>78400</v>
+        <v>78410</v>
       </c>
       <c r="D281">
         <f t="shared" si="14"/>
@@ -12273,7 +12273,7 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="13"/>
-        <v>78961</v>
+        <v>78971</v>
       </c>
       <c r="D282">
         <f t="shared" si="14"/>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="13"/>
-        <v>79524</v>
+        <v>79534</v>
       </c>
       <c r="D283">
         <f t="shared" si="14"/>
@@ -12307,7 +12307,7 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="13"/>
-        <v>80089</v>
+        <v>80099</v>
       </c>
       <c r="D284">
         <f t="shared" si="14"/>
@@ -12324,7 +12324,7 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="13"/>
-        <v>80656</v>
+        <v>80666</v>
       </c>
       <c r="D285">
         <f t="shared" si="14"/>
@@ -12341,7 +12341,7 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="13"/>
-        <v>81225</v>
+        <v>81235</v>
       </c>
       <c r="D286">
         <f t="shared" si="14"/>
@@ -12358,7 +12358,7 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="13"/>
-        <v>81796</v>
+        <v>81806</v>
       </c>
       <c r="D287">
         <f t="shared" si="14"/>
@@ -12375,7 +12375,7 @@
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="13"/>
-        <v>82369</v>
+        <v>82379</v>
       </c>
       <c r="D288">
         <f t="shared" si="14"/>
@@ -12392,7 +12392,7 @@
       </c>
       <c r="C289">
         <f t="shared" ca="1" si="13"/>
-        <v>82944</v>
+        <v>82954</v>
       </c>
       <c r="D289">
         <f t="shared" si="14"/>
@@ -12409,7 +12409,7 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="13"/>
-        <v>83521</v>
+        <v>83531</v>
       </c>
       <c r="D290">
         <f t="shared" si="14"/>
@@ -12426,7 +12426,7 @@
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="13"/>
-        <v>84100</v>
+        <v>84110</v>
       </c>
       <c r="D291">
         <f t="shared" si="14"/>
@@ -12443,7 +12443,7 @@
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="13"/>
-        <v>84681</v>
+        <v>84691</v>
       </c>
       <c r="D292">
         <f t="shared" si="14"/>
@@ -12460,7 +12460,7 @@
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="13"/>
-        <v>85264</v>
+        <v>85274</v>
       </c>
       <c r="D293">
         <f t="shared" si="14"/>
@@ -12477,7 +12477,7 @@
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="13"/>
-        <v>85849</v>
+        <v>85859</v>
       </c>
       <c r="D294">
         <f t="shared" si="14"/>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="13"/>
-        <v>86436</v>
+        <v>86446</v>
       </c>
       <c r="D295">
         <f t="shared" si="14"/>
@@ -12511,7 +12511,7 @@
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="13"/>
-        <v>87025</v>
+        <v>87035</v>
       </c>
       <c r="D296">
         <f t="shared" si="14"/>
@@ -12528,7 +12528,7 @@
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="13"/>
-        <v>87616</v>
+        <v>87626</v>
       </c>
       <c r="D297">
         <f t="shared" si="14"/>
@@ -12545,7 +12545,7 @@
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="13"/>
-        <v>88209</v>
+        <v>88219</v>
       </c>
       <c r="D298">
         <f t="shared" si="14"/>
@@ -12562,7 +12562,7 @@
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="13"/>
-        <v>88804</v>
+        <v>88814</v>
       </c>
       <c r="D299">
         <f t="shared" si="14"/>
@@ -12579,7 +12579,7 @@
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="13"/>
-        <v>89401</v>
+        <v>89411</v>
       </c>
       <c r="D300">
         <f t="shared" si="14"/>
@@ -12596,7 +12596,7 @@
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="13"/>
-        <v>90000</v>
+        <v>90010</v>
       </c>
       <c r="D301">
         <f t="shared" si="14"/>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="13"/>
-        <v>90601</v>
+        <v>90611</v>
       </c>
       <c r="D302">
         <f t="shared" si="14"/>
@@ -12630,7 +12630,7 @@
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="13"/>
-        <v>91204</v>
+        <v>91214</v>
       </c>
       <c r="D303">
         <f t="shared" si="14"/>
@@ -12647,7 +12647,7 @@
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="13"/>
-        <v>91809</v>
+        <v>91819</v>
       </c>
       <c r="D304">
         <f t="shared" si="14"/>
@@ -12664,7 +12664,7 @@
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="13"/>
-        <v>92416</v>
+        <v>92426</v>
       </c>
       <c r="D305">
         <f t="shared" si="14"/>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="13"/>
-        <v>93025</v>
+        <v>93035</v>
       </c>
       <c r="D306">
         <f t="shared" si="14"/>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="13"/>
-        <v>93636</v>
+        <v>93646</v>
       </c>
       <c r="D307">
         <f t="shared" si="14"/>
@@ -12715,7 +12715,7 @@
       </c>
       <c r="C308">
         <f t="shared" ca="1" si="13"/>
-        <v>94249</v>
+        <v>94259</v>
       </c>
       <c r="D308">
         <f t="shared" si="14"/>
@@ -12732,7 +12732,7 @@
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="13"/>
-        <v>94864</v>
+        <v>94874</v>
       </c>
       <c r="D309">
         <f t="shared" si="14"/>
@@ -12749,7 +12749,7 @@
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="13"/>
-        <v>95481</v>
+        <v>95491</v>
       </c>
       <c r="D310">
         <f t="shared" si="14"/>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="13"/>
-        <v>96100</v>
+        <v>96110</v>
       </c>
       <c r="D311">
         <f t="shared" si="14"/>
@@ -12783,7 +12783,7 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="13"/>
-        <v>96721</v>
+        <v>96731</v>
       </c>
       <c r="D312">
         <f t="shared" si="14"/>
@@ -12800,7 +12800,7 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="13"/>
-        <v>97344</v>
+        <v>97354</v>
       </c>
       <c r="D313">
         <f t="shared" si="14"/>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="13"/>
-        <v>97969</v>
+        <v>97979</v>
       </c>
       <c r="D314">
         <f t="shared" si="14"/>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="13"/>
-        <v>98596</v>
+        <v>98606</v>
       </c>
       <c r="D315">
         <f t="shared" si="14"/>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="13"/>
-        <v>99225</v>
+        <v>99235</v>
       </c>
       <c r="D316">
         <f t="shared" si="14"/>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="13"/>
-        <v>99856</v>
+        <v>99866</v>
       </c>
       <c r="D317">
         <f t="shared" si="14"/>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="13"/>
-        <v>100489</v>
+        <v>100499</v>
       </c>
       <c r="D318">
         <f t="shared" si="14"/>
@@ -12902,7 +12902,7 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="13"/>
-        <v>101124</v>
+        <v>101134</v>
       </c>
       <c r="D319">
         <f t="shared" si="14"/>
@@ -12919,7 +12919,7 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="13"/>
-        <v>101761</v>
+        <v>101771</v>
       </c>
       <c r="D320">
         <f t="shared" si="14"/>
@@ -12936,7 +12936,7 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="13"/>
-        <v>102400</v>
+        <v>102410</v>
       </c>
       <c r="D321">
         <f t="shared" si="14"/>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="13"/>
-        <v>103041</v>
+        <v>103051</v>
       </c>
       <c r="D322">
         <f t="shared" si="14"/>
@@ -12970,7 +12970,7 @@
       </c>
       <c r="C323">
         <f t="shared" ref="C323:C386" ca="1" si="16">1*INDIRECT(B323)+2*A323-1</f>
-        <v>103684</v>
+        <v>103694</v>
       </c>
       <c r="D323">
         <f t="shared" ref="D323:D386" si="17">2000*A323</f>
@@ -12987,7 +12987,7 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="16"/>
-        <v>104329</v>
+        <v>104339</v>
       </c>
       <c r="D324">
         <f t="shared" si="17"/>
@@ -13004,7 +13004,7 @@
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="16"/>
-        <v>104976</v>
+        <v>104986</v>
       </c>
       <c r="D325">
         <f t="shared" si="17"/>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="16"/>
-        <v>105625</v>
+        <v>105635</v>
       </c>
       <c r="D326">
         <f t="shared" si="17"/>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="C327">
         <f t="shared" ca="1" si="16"/>
-        <v>106276</v>
+        <v>106286</v>
       </c>
       <c r="D327">
         <f t="shared" si="17"/>
@@ -13055,7 +13055,7 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="16"/>
-        <v>106929</v>
+        <v>106939</v>
       </c>
       <c r="D328">
         <f t="shared" si="17"/>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="16"/>
-        <v>107584</v>
+        <v>107594</v>
       </c>
       <c r="D329">
         <f t="shared" si="17"/>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="16"/>
-        <v>108241</v>
+        <v>108251</v>
       </c>
       <c r="D330">
         <f t="shared" si="17"/>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="16"/>
-        <v>108900</v>
+        <v>108910</v>
       </c>
       <c r="D331">
         <f t="shared" si="17"/>
@@ -13123,7 +13123,7 @@
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="16"/>
-        <v>109561</v>
+        <v>109571</v>
       </c>
       <c r="D332">
         <f t="shared" si="17"/>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="16"/>
-        <v>110224</v>
+        <v>110234</v>
       </c>
       <c r="D333">
         <f t="shared" si="17"/>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="16"/>
-        <v>110889</v>
+        <v>110899</v>
       </c>
       <c r="D334">
         <f t="shared" si="17"/>
@@ -13174,7 +13174,7 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="16"/>
-        <v>111556</v>
+        <v>111566</v>
       </c>
       <c r="D335">
         <f t="shared" si="17"/>
@@ -13191,7 +13191,7 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="16"/>
-        <v>112225</v>
+        <v>112235</v>
       </c>
       <c r="D336">
         <f t="shared" si="17"/>
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="16"/>
-        <v>112896</v>
+        <v>112906</v>
       </c>
       <c r="D337">
         <f t="shared" si="17"/>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="C338">
         <f t="shared" ca="1" si="16"/>
-        <v>113569</v>
+        <v>113579</v>
       </c>
       <c r="D338">
         <f t="shared" si="17"/>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="16"/>
-        <v>114244</v>
+        <v>114254</v>
       </c>
       <c r="D339">
         <f t="shared" si="17"/>
@@ -13259,7 +13259,7 @@
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="16"/>
-        <v>114921</v>
+        <v>114931</v>
       </c>
       <c r="D340">
         <f t="shared" si="17"/>
@@ -13276,7 +13276,7 @@
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="16"/>
-        <v>115600</v>
+        <v>115610</v>
       </c>
       <c r="D341">
         <f t="shared" si="17"/>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="16"/>
-        <v>116281</v>
+        <v>116291</v>
       </c>
       <c r="D342">
         <f t="shared" si="17"/>
@@ -13310,7 +13310,7 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="16"/>
-        <v>116964</v>
+        <v>116974</v>
       </c>
       <c r="D343">
         <f t="shared" si="17"/>
@@ -13327,7 +13327,7 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="16"/>
-        <v>117649</v>
+        <v>117659</v>
       </c>
       <c r="D344">
         <f t="shared" si="17"/>
@@ -13344,7 +13344,7 @@
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="16"/>
-        <v>118336</v>
+        <v>118346</v>
       </c>
       <c r="D345">
         <f t="shared" si="17"/>
@@ -13361,7 +13361,7 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="16"/>
-        <v>119025</v>
+        <v>119035</v>
       </c>
       <c r="D346">
         <f t="shared" si="17"/>
@@ -13378,7 +13378,7 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="16"/>
-        <v>119716</v>
+        <v>119726</v>
       </c>
       <c r="D347">
         <f t="shared" si="17"/>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="16"/>
-        <v>120409</v>
+        <v>120419</v>
       </c>
       <c r="D348">
         <f t="shared" si="17"/>
@@ -13412,7 +13412,7 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="16"/>
-        <v>121104</v>
+        <v>121114</v>
       </c>
       <c r="D349">
         <f t="shared" si="17"/>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="16"/>
-        <v>121801</v>
+        <v>121811</v>
       </c>
       <c r="D350">
         <f t="shared" si="17"/>
@@ -13446,7 +13446,7 @@
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="16"/>
-        <v>122500</v>
+        <v>122510</v>
       </c>
       <c r="D351">
         <f t="shared" si="17"/>
@@ -13463,7 +13463,7 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="16"/>
-        <v>123201</v>
+        <v>123211</v>
       </c>
       <c r="D352">
         <f t="shared" si="17"/>
@@ -13480,7 +13480,7 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="16"/>
-        <v>123904</v>
+        <v>123914</v>
       </c>
       <c r="D353">
         <f t="shared" si="17"/>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="C354">
         <f t="shared" ca="1" si="16"/>
-        <v>124609</v>
+        <v>124619</v>
       </c>
       <c r="D354">
         <f t="shared" si="17"/>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="16"/>
-        <v>125316</v>
+        <v>125326</v>
       </c>
       <c r="D355">
         <f t="shared" si="17"/>
@@ -13531,7 +13531,7 @@
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="16"/>
-        <v>126025</v>
+        <v>126035</v>
       </c>
       <c r="D356">
         <f t="shared" si="17"/>
@@ -13548,7 +13548,7 @@
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="16"/>
-        <v>126736</v>
+        <v>126746</v>
       </c>
       <c r="D357">
         <f t="shared" si="17"/>
@@ -13565,7 +13565,7 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="16"/>
-        <v>127449</v>
+        <v>127459</v>
       </c>
       <c r="D358">
         <f t="shared" si="17"/>
@@ -13582,7 +13582,7 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="16"/>
-        <v>128164</v>
+        <v>128174</v>
       </c>
       <c r="D359">
         <f t="shared" si="17"/>
@@ -13599,7 +13599,7 @@
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="16"/>
-        <v>128881</v>
+        <v>128891</v>
       </c>
       <c r="D360">
         <f t="shared" si="17"/>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="C361">
         <f t="shared" ca="1" si="16"/>
-        <v>129600</v>
+        <v>129610</v>
       </c>
       <c r="D361">
         <f t="shared" si="17"/>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="16"/>
-        <v>130321</v>
+        <v>130331</v>
       </c>
       <c r="D362">
         <f t="shared" si="17"/>
@@ -13650,7 +13650,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="16"/>
-        <v>131044</v>
+        <v>131054</v>
       </c>
       <c r="D363">
         <f t="shared" si="17"/>
@@ -13667,7 +13667,7 @@
       </c>
       <c r="C364">
         <f t="shared" ca="1" si="16"/>
-        <v>131769</v>
+        <v>131779</v>
       </c>
       <c r="D364">
         <f t="shared" si="17"/>
@@ -13684,7 +13684,7 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="16"/>
-        <v>132496</v>
+        <v>132506</v>
       </c>
       <c r="D365">
         <f t="shared" si="17"/>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="16"/>
-        <v>133225</v>
+        <v>133235</v>
       </c>
       <c r="D366">
         <f t="shared" si="17"/>
@@ -13718,7 +13718,7 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="16"/>
-        <v>133956</v>
+        <v>133966</v>
       </c>
       <c r="D367">
         <f t="shared" si="17"/>
@@ -13735,7 +13735,7 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="16"/>
-        <v>134689</v>
+        <v>134699</v>
       </c>
       <c r="D368">
         <f t="shared" si="17"/>
@@ -13752,7 +13752,7 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="16"/>
-        <v>135424</v>
+        <v>135434</v>
       </c>
       <c r="D369">
         <f t="shared" si="17"/>
@@ -13769,7 +13769,7 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="16"/>
-        <v>136161</v>
+        <v>136171</v>
       </c>
       <c r="D370">
         <f t="shared" si="17"/>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="C371">
         <f t="shared" ca="1" si="16"/>
-        <v>136900</v>
+        <v>136910</v>
       </c>
       <c r="D371">
         <f t="shared" si="17"/>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="16"/>
-        <v>137641</v>
+        <v>137651</v>
       </c>
       <c r="D372">
         <f t="shared" si="17"/>
@@ -13820,7 +13820,7 @@
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="16"/>
-        <v>138384</v>
+        <v>138394</v>
       </c>
       <c r="D373">
         <f t="shared" si="17"/>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="16"/>
-        <v>139129</v>
+        <v>139139</v>
       </c>
       <c r="D374">
         <f t="shared" si="17"/>
@@ -13854,7 +13854,7 @@
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="16"/>
-        <v>139876</v>
+        <v>139886</v>
       </c>
       <c r="D375">
         <f t="shared" si="17"/>
@@ -13871,7 +13871,7 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="16"/>
-        <v>140625</v>
+        <v>140635</v>
       </c>
       <c r="D376">
         <f t="shared" si="17"/>
@@ -13888,7 +13888,7 @@
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="16"/>
-        <v>141376</v>
+        <v>141386</v>
       </c>
       <c r="D377">
         <f t="shared" si="17"/>
@@ -13905,7 +13905,7 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="16"/>
-        <v>142129</v>
+        <v>142139</v>
       </c>
       <c r="D378">
         <f t="shared" si="17"/>
@@ -13922,7 +13922,7 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="16"/>
-        <v>142884</v>
+        <v>142894</v>
       </c>
       <c r="D379">
         <f t="shared" si="17"/>
@@ -13939,7 +13939,7 @@
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="16"/>
-        <v>143641</v>
+        <v>143651</v>
       </c>
       <c r="D380">
         <f t="shared" si="17"/>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="C381">
         <f t="shared" ca="1" si="16"/>
-        <v>144400</v>
+        <v>144410</v>
       </c>
       <c r="D381">
         <f t="shared" si="17"/>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="C382">
         <f t="shared" ca="1" si="16"/>
-        <v>145161</v>
+        <v>145171</v>
       </c>
       <c r="D382">
         <f t="shared" si="17"/>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="16"/>
-        <v>145924</v>
+        <v>145934</v>
       </c>
       <c r="D383">
         <f t="shared" si="17"/>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="16"/>
-        <v>146689</v>
+        <v>146699</v>
       </c>
       <c r="D384">
         <f t="shared" si="17"/>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="16"/>
-        <v>147456</v>
+        <v>147466</v>
       </c>
       <c r="D385">
         <f t="shared" si="17"/>
@@ -14041,7 +14041,7 @@
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="16"/>
-        <v>148225</v>
+        <v>148235</v>
       </c>
       <c r="D386">
         <f t="shared" si="17"/>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="C387">
         <f t="shared" ref="C387:C450" ca="1" si="19">1*INDIRECT(B387)+2*A387-1</f>
-        <v>148996</v>
+        <v>149006</v>
       </c>
       <c r="D387">
         <f t="shared" ref="D387:D450" si="20">2000*A387</f>
@@ -14075,7 +14075,7 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="19"/>
-        <v>149769</v>
+        <v>149779</v>
       </c>
       <c r="D388">
         <f t="shared" si="20"/>
@@ -14092,7 +14092,7 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="19"/>
-        <v>150544</v>
+        <v>150554</v>
       </c>
       <c r="D389">
         <f t="shared" si="20"/>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="19"/>
-        <v>151321</v>
+        <v>151331</v>
       </c>
       <c r="D390">
         <f t="shared" si="20"/>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="19"/>
-        <v>152100</v>
+        <v>152110</v>
       </c>
       <c r="D391">
         <f t="shared" si="20"/>
@@ -14143,7 +14143,7 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="19"/>
-        <v>152881</v>
+        <v>152891</v>
       </c>
       <c r="D392">
         <f t="shared" si="20"/>
@@ -14160,7 +14160,7 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="19"/>
-        <v>153664</v>
+        <v>153674</v>
       </c>
       <c r="D393">
         <f t="shared" si="20"/>
@@ -14177,7 +14177,7 @@
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="19"/>
-        <v>154449</v>
+        <v>154459</v>
       </c>
       <c r="D394">
         <f t="shared" si="20"/>
@@ -14194,7 +14194,7 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="19"/>
-        <v>155236</v>
+        <v>155246</v>
       </c>
       <c r="D395">
         <f t="shared" si="20"/>
@@ -14211,7 +14211,7 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="19"/>
-        <v>156025</v>
+        <v>156035</v>
       </c>
       <c r="D396">
         <f t="shared" si="20"/>
@@ -14228,7 +14228,7 @@
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="19"/>
-        <v>156816</v>
+        <v>156826</v>
       </c>
       <c r="D397">
         <f t="shared" si="20"/>
@@ -14245,7 +14245,7 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="19"/>
-        <v>157609</v>
+        <v>157619</v>
       </c>
       <c r="D398">
         <f t="shared" si="20"/>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="19"/>
-        <v>158404</v>
+        <v>158414</v>
       </c>
       <c r="D399">
         <f t="shared" si="20"/>
@@ -14279,7 +14279,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="19"/>
-        <v>159201</v>
+        <v>159211</v>
       </c>
       <c r="D400">
         <f t="shared" si="20"/>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="C401">
         <f t="shared" ca="1" si="19"/>
-        <v>160000</v>
+        <v>160010</v>
       </c>
       <c r="D401">
         <f t="shared" si="20"/>
@@ -14313,7 +14313,7 @@
       </c>
       <c r="C402">
         <f t="shared" ca="1" si="19"/>
-        <v>160801</v>
+        <v>160811</v>
       </c>
       <c r="D402">
         <f t="shared" si="20"/>
@@ -14330,7 +14330,7 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="19"/>
-        <v>161604</v>
+        <v>161614</v>
       </c>
       <c r="D403">
         <f t="shared" si="20"/>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="19"/>
-        <v>162409</v>
+        <v>162419</v>
       </c>
       <c r="D404">
         <f t="shared" si="20"/>
@@ -14364,7 +14364,7 @@
       </c>
       <c r="C405">
         <f t="shared" ca="1" si="19"/>
-        <v>163216</v>
+        <v>163226</v>
       </c>
       <c r="D405">
         <f t="shared" si="20"/>
@@ -14381,7 +14381,7 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="19"/>
-        <v>164025</v>
+        <v>164035</v>
       </c>
       <c r="D406">
         <f t="shared" si="20"/>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="19"/>
-        <v>164836</v>
+        <v>164846</v>
       </c>
       <c r="D407">
         <f t="shared" si="20"/>
@@ -14415,7 +14415,7 @@
       </c>
       <c r="C408">
         <f t="shared" ca="1" si="19"/>
-        <v>165649</v>
+        <v>165659</v>
       </c>
       <c r="D408">
         <f t="shared" si="20"/>
@@ -14432,7 +14432,7 @@
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="19"/>
-        <v>166464</v>
+        <v>166474</v>
       </c>
       <c r="D409">
         <f t="shared" si="20"/>
@@ -14449,7 +14449,7 @@
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="19"/>
-        <v>167281</v>
+        <v>167291</v>
       </c>
       <c r="D410">
         <f t="shared" si="20"/>
@@ -14466,7 +14466,7 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="19"/>
-        <v>168100</v>
+        <v>168110</v>
       </c>
       <c r="D411">
         <f t="shared" si="20"/>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="19"/>
-        <v>168921</v>
+        <v>168931</v>
       </c>
       <c r="D412">
         <f t="shared" si="20"/>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="19"/>
-        <v>169744</v>
+        <v>169754</v>
       </c>
       <c r="D413">
         <f t="shared" si="20"/>
@@ -14517,7 +14517,7 @@
       </c>
       <c r="C414">
         <f t="shared" ca="1" si="19"/>
-        <v>170569</v>
+        <v>170579</v>
       </c>
       <c r="D414">
         <f t="shared" si="20"/>
@@ -14534,7 +14534,7 @@
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="19"/>
-        <v>171396</v>
+        <v>171406</v>
       </c>
       <c r="D415">
         <f t="shared" si="20"/>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="19"/>
-        <v>172225</v>
+        <v>172235</v>
       </c>
       <c r="D416">
         <f t="shared" si="20"/>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="19"/>
-        <v>173056</v>
+        <v>173066</v>
       </c>
       <c r="D417">
         <f t="shared" si="20"/>
@@ -14585,7 +14585,7 @@
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="19"/>
-        <v>173889</v>
+        <v>173899</v>
       </c>
       <c r="D418">
         <f t="shared" si="20"/>
@@ -14602,7 +14602,7 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="19"/>
-        <v>174724</v>
+        <v>174734</v>
       </c>
       <c r="D419">
         <f t="shared" si="20"/>
@@ -14619,7 +14619,7 @@
       </c>
       <c r="C420">
         <f t="shared" ca="1" si="19"/>
-        <v>175561</v>
+        <v>175571</v>
       </c>
       <c r="D420">
         <f t="shared" si="20"/>
@@ -14636,7 +14636,7 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="19"/>
-        <v>176400</v>
+        <v>176410</v>
       </c>
       <c r="D421">
         <f t="shared" si="20"/>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="19"/>
-        <v>177241</v>
+        <v>177251</v>
       </c>
       <c r="D422">
         <f t="shared" si="20"/>
@@ -14670,7 +14670,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="19"/>
-        <v>178084</v>
+        <v>178094</v>
       </c>
       <c r="D423">
         <f t="shared" si="20"/>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="19"/>
-        <v>178929</v>
+        <v>178939</v>
       </c>
       <c r="D424">
         <f t="shared" si="20"/>
@@ -14704,7 +14704,7 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="19"/>
-        <v>179776</v>
+        <v>179786</v>
       </c>
       <c r="D425">
         <f t="shared" si="20"/>
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="19"/>
-        <v>180625</v>
+        <v>180635</v>
       </c>
       <c r="D426">
         <f t="shared" si="20"/>
@@ -14738,7 +14738,7 @@
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="19"/>
-        <v>181476</v>
+        <v>181486</v>
       </c>
       <c r="D427">
         <f t="shared" si="20"/>
@@ -14755,7 +14755,7 @@
       </c>
       <c r="C428">
         <f t="shared" ca="1" si="19"/>
-        <v>182329</v>
+        <v>182339</v>
       </c>
       <c r="D428">
         <f t="shared" si="20"/>
@@ -14772,7 +14772,7 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="19"/>
-        <v>183184</v>
+        <v>183194</v>
       </c>
       <c r="D429">
         <f t="shared" si="20"/>
@@ -14789,7 +14789,7 @@
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="19"/>
-        <v>184041</v>
+        <v>184051</v>
       </c>
       <c r="D430">
         <f t="shared" si="20"/>
@@ -14806,7 +14806,7 @@
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="19"/>
-        <v>184900</v>
+        <v>184910</v>
       </c>
       <c r="D431">
         <f t="shared" si="20"/>
@@ -14823,7 +14823,7 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="19"/>
-        <v>185761</v>
+        <v>185771</v>
       </c>
       <c r="D432">
         <f t="shared" si="20"/>
@@ -14840,7 +14840,7 @@
       </c>
       <c r="C433">
         <f t="shared" ca="1" si="19"/>
-        <v>186624</v>
+        <v>186634</v>
       </c>
       <c r="D433">
         <f t="shared" si="20"/>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="C434">
         <f t="shared" ca="1" si="19"/>
-        <v>187489</v>
+        <v>187499</v>
       </c>
       <c r="D434">
         <f t="shared" si="20"/>
@@ -14874,7 +14874,7 @@
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="19"/>
-        <v>188356</v>
+        <v>188366</v>
       </c>
       <c r="D435">
         <f t="shared" si="20"/>
@@ -14891,7 +14891,7 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="19"/>
-        <v>189225</v>
+        <v>189235</v>
       </c>
       <c r="D436">
         <f t="shared" si="20"/>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="19"/>
-        <v>190096</v>
+        <v>190106</v>
       </c>
       <c r="D437">
         <f t="shared" si="20"/>
@@ -14925,7 +14925,7 @@
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="19"/>
-        <v>190969</v>
+        <v>190979</v>
       </c>
       <c r="D438">
         <f t="shared" si="20"/>
@@ -14942,7 +14942,7 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="19"/>
-        <v>191844</v>
+        <v>191854</v>
       </c>
       <c r="D439">
         <f t="shared" si="20"/>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="19"/>
-        <v>192721</v>
+        <v>192731</v>
       </c>
       <c r="D440">
         <f t="shared" si="20"/>
@@ -14976,7 +14976,7 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="19"/>
-        <v>193600</v>
+        <v>193610</v>
       </c>
       <c r="D441">
         <f t="shared" si="20"/>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="19"/>
-        <v>194481</v>
+        <v>194491</v>
       </c>
       <c r="D442">
         <f t="shared" si="20"/>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="19"/>
-        <v>195364</v>
+        <v>195374</v>
       </c>
       <c r="D443">
         <f t="shared" si="20"/>
@@ -15027,7 +15027,7 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="19"/>
-        <v>196249</v>
+        <v>196259</v>
       </c>
       <c r="D444">
         <f t="shared" si="20"/>
@@ -15044,7 +15044,7 @@
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="19"/>
-        <v>197136</v>
+        <v>197146</v>
       </c>
       <c r="D445">
         <f t="shared" si="20"/>
@@ -15061,7 +15061,7 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="19"/>
-        <v>198025</v>
+        <v>198035</v>
       </c>
       <c r="D446">
         <f t="shared" si="20"/>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="19"/>
-        <v>198916</v>
+        <v>198926</v>
       </c>
       <c r="D447">
         <f t="shared" si="20"/>
@@ -15095,7 +15095,7 @@
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="19"/>
-        <v>199809</v>
+        <v>199819</v>
       </c>
       <c r="D448">
         <f t="shared" si="20"/>
@@ -15112,7 +15112,7 @@
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="19"/>
-        <v>200704</v>
+        <v>200714</v>
       </c>
       <c r="D449">
         <f t="shared" si="20"/>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="19"/>
-        <v>201601</v>
+        <v>201611</v>
       </c>
       <c r="D450">
         <f t="shared" si="20"/>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="C451">
         <f t="shared" ref="C451:C513" ca="1" si="22">1*INDIRECT(B451)+2*A451-1</f>
-        <v>202500</v>
+        <v>202510</v>
       </c>
       <c r="D451">
         <f t="shared" ref="D451:D513" si="23">2000*A451</f>
@@ -15163,7 +15163,7 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="22"/>
-        <v>203401</v>
+        <v>203411</v>
       </c>
       <c r="D452">
         <f t="shared" si="23"/>
@@ -15180,7 +15180,7 @@
       </c>
       <c r="C453">
         <f t="shared" ca="1" si="22"/>
-        <v>204304</v>
+        <v>204314</v>
       </c>
       <c r="D453">
         <f t="shared" si="23"/>
@@ -15197,7 +15197,7 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="22"/>
-        <v>205209</v>
+        <v>205219</v>
       </c>
       <c r="D454">
         <f t="shared" si="23"/>
@@ -15214,7 +15214,7 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="22"/>
-        <v>206116</v>
+        <v>206126</v>
       </c>
       <c r="D455">
         <f t="shared" si="23"/>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="22"/>
-        <v>207025</v>
+        <v>207035</v>
       </c>
       <c r="D456">
         <f t="shared" si="23"/>
@@ -15248,7 +15248,7 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="22"/>
-        <v>207936</v>
+        <v>207946</v>
       </c>
       <c r="D457">
         <f t="shared" si="23"/>
@@ -15265,7 +15265,7 @@
       </c>
       <c r="C458">
         <f t="shared" ca="1" si="22"/>
-        <v>208849</v>
+        <v>208859</v>
       </c>
       <c r="D458">
         <f t="shared" si="23"/>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="22"/>
-        <v>209764</v>
+        <v>209774</v>
       </c>
       <c r="D459">
         <f t="shared" si="23"/>
@@ -15299,7 +15299,7 @@
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="22"/>
-        <v>210681</v>
+        <v>210691</v>
       </c>
       <c r="D460">
         <f t="shared" si="23"/>
@@ -15316,7 +15316,7 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="22"/>
-        <v>211600</v>
+        <v>211610</v>
       </c>
       <c r="D461">
         <f t="shared" si="23"/>
@@ -15333,7 +15333,7 @@
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="22"/>
-        <v>212521</v>
+        <v>212531</v>
       </c>
       <c r="D462">
         <f t="shared" si="23"/>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="C463">
         <f t="shared" ca="1" si="22"/>
-        <v>213444</v>
+        <v>213454</v>
       </c>
       <c r="D463">
         <f t="shared" si="23"/>
@@ -15367,7 +15367,7 @@
       </c>
       <c r="C464">
         <f t="shared" ca="1" si="22"/>
-        <v>214369</v>
+        <v>214379</v>
       </c>
       <c r="D464">
         <f t="shared" si="23"/>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="C465">
         <f t="shared" ca="1" si="22"/>
-        <v>215296</v>
+        <v>215306</v>
       </c>
       <c r="D465">
         <f t="shared" si="23"/>
@@ -15401,7 +15401,7 @@
       </c>
       <c r="C466">
         <f t="shared" ca="1" si="22"/>
-        <v>216225</v>
+        <v>216235</v>
       </c>
       <c r="D466">
         <f t="shared" si="23"/>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="22"/>
-        <v>217156</v>
+        <v>217166</v>
       </c>
       <c r="D467">
         <f t="shared" si="23"/>
@@ -15435,7 +15435,7 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="22"/>
-        <v>218089</v>
+        <v>218099</v>
       </c>
       <c r="D468">
         <f t="shared" si="23"/>
@@ -15452,7 +15452,7 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="22"/>
-        <v>219024</v>
+        <v>219034</v>
       </c>
       <c r="D469">
         <f t="shared" si="23"/>
@@ -15469,7 +15469,7 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="22"/>
-        <v>219961</v>
+        <v>219971</v>
       </c>
       <c r="D470">
         <f t="shared" si="23"/>
@@ -15486,7 +15486,7 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="22"/>
-        <v>220900</v>
+        <v>220910</v>
       </c>
       <c r="D471">
         <f t="shared" si="23"/>
@@ -15503,7 +15503,7 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="22"/>
-        <v>221841</v>
+        <v>221851</v>
       </c>
       <c r="D472">
         <f t="shared" si="23"/>
@@ -15520,7 +15520,7 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="22"/>
-        <v>222784</v>
+        <v>222794</v>
       </c>
       <c r="D473">
         <f t="shared" si="23"/>
@@ -15537,7 +15537,7 @@
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="22"/>
-        <v>223729</v>
+        <v>223739</v>
       </c>
       <c r="D474">
         <f t="shared" si="23"/>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="C475">
         <f t="shared" ca="1" si="22"/>
-        <v>224676</v>
+        <v>224686</v>
       </c>
       <c r="D475">
         <f t="shared" si="23"/>
@@ -15571,7 +15571,7 @@
       </c>
       <c r="C476">
         <f t="shared" ca="1" si="22"/>
-        <v>225625</v>
+        <v>225635</v>
       </c>
       <c r="D476">
         <f t="shared" si="23"/>
@@ -15588,7 +15588,7 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="22"/>
-        <v>226576</v>
+        <v>226586</v>
       </c>
       <c r="D477">
         <f t="shared" si="23"/>
@@ -15605,7 +15605,7 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="22"/>
-        <v>227529</v>
+        <v>227539</v>
       </c>
       <c r="D478">
         <f t="shared" si="23"/>
@@ -15622,7 +15622,7 @@
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="22"/>
-        <v>228484</v>
+        <v>228494</v>
       </c>
       <c r="D479">
         <f t="shared" si="23"/>
@@ -15639,7 +15639,7 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="22"/>
-        <v>229441</v>
+        <v>229451</v>
       </c>
       <c r="D480">
         <f t="shared" si="23"/>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="22"/>
-        <v>230400</v>
+        <v>230410</v>
       </c>
       <c r="D481">
         <f t="shared" si="23"/>
@@ -15673,7 +15673,7 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="22"/>
-        <v>231361</v>
+        <v>231371</v>
       </c>
       <c r="D482">
         <f t="shared" si="23"/>
@@ -15690,7 +15690,7 @@
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="22"/>
-        <v>232324</v>
+        <v>232334</v>
       </c>
       <c r="D483">
         <f t="shared" si="23"/>
@@ -15707,7 +15707,7 @@
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="22"/>
-        <v>233289</v>
+        <v>233299</v>
       </c>
       <c r="D484">
         <f t="shared" si="23"/>
@@ -15724,7 +15724,7 @@
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="22"/>
-        <v>234256</v>
+        <v>234266</v>
       </c>
       <c r="D485">
         <f t="shared" si="23"/>
@@ -15741,7 +15741,7 @@
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="22"/>
-        <v>235225</v>
+        <v>235235</v>
       </c>
       <c r="D486">
         <f t="shared" si="23"/>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="22"/>
-        <v>236196</v>
+        <v>236206</v>
       </c>
       <c r="D487">
         <f t="shared" si="23"/>
@@ -15775,7 +15775,7 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="22"/>
-        <v>237169</v>
+        <v>237179</v>
       </c>
       <c r="D488">
         <f t="shared" si="23"/>
@@ -15792,7 +15792,7 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="22"/>
-        <v>238144</v>
+        <v>238154</v>
       </c>
       <c r="D489">
         <f t="shared" si="23"/>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="22"/>
-        <v>239121</v>
+        <v>239131</v>
       </c>
       <c r="D490">
         <f t="shared" si="23"/>
@@ -15826,7 +15826,7 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="22"/>
-        <v>240100</v>
+        <v>240110</v>
       </c>
       <c r="D491">
         <f t="shared" si="23"/>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="22"/>
-        <v>241081</v>
+        <v>241091</v>
       </c>
       <c r="D492">
         <f t="shared" si="23"/>
@@ -15860,7 +15860,7 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="22"/>
-        <v>242064</v>
+        <v>242074</v>
       </c>
       <c r="D493">
         <f t="shared" si="23"/>
@@ -15877,7 +15877,7 @@
       </c>
       <c r="C494">
         <f t="shared" ca="1" si="22"/>
-        <v>243049</v>
+        <v>243059</v>
       </c>
       <c r="D494">
         <f t="shared" si="23"/>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="C495">
         <f t="shared" ca="1" si="22"/>
-        <v>244036</v>
+        <v>244046</v>
       </c>
       <c r="D495">
         <f t="shared" si="23"/>
@@ -15911,7 +15911,7 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="22"/>
-        <v>245025</v>
+        <v>245035</v>
       </c>
       <c r="D496">
         <f t="shared" si="23"/>
@@ -15928,7 +15928,7 @@
       </c>
       <c r="C497">
         <f t="shared" ca="1" si="22"/>
-        <v>246016</v>
+        <v>246026</v>
       </c>
       <c r="D497">
         <f t="shared" si="23"/>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="22"/>
-        <v>247009</v>
+        <v>247019</v>
       </c>
       <c r="D498">
         <f t="shared" si="23"/>
@@ -15962,7 +15962,7 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="22"/>
-        <v>248004</v>
+        <v>248014</v>
       </c>
       <c r="D499">
         <f t="shared" si="23"/>
@@ -15979,7 +15979,7 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="22"/>
-        <v>249001</v>
+        <v>249011</v>
       </c>
       <c r="D500">
         <f t="shared" si="23"/>
@@ -15996,7 +15996,7 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="22"/>
-        <v>250000</v>
+        <v>250010</v>
       </c>
       <c r="D501">
         <f t="shared" si="23"/>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="22"/>
-        <v>251001</v>
+        <v>251011</v>
       </c>
       <c r="D502">
         <f t="shared" si="23"/>
@@ -16030,7 +16030,7 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="22"/>
-        <v>252004</v>
+        <v>252014</v>
       </c>
       <c r="D503">
         <f t="shared" si="23"/>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="22"/>
-        <v>253009</v>
+        <v>253019</v>
       </c>
       <c r="D504">
         <f t="shared" si="23"/>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="22"/>
-        <v>254016</v>
+        <v>254026</v>
       </c>
       <c r="D505">
         <f t="shared" si="23"/>
@@ -16081,7 +16081,7 @@
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="22"/>
-        <v>255025</v>
+        <v>255035</v>
       </c>
       <c r="D506">
         <f t="shared" si="23"/>
@@ -16098,7 +16098,7 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="22"/>
-        <v>256036</v>
+        <v>256046</v>
       </c>
       <c r="D507">
         <f t="shared" si="23"/>
@@ -16115,7 +16115,7 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="22"/>
-        <v>257049</v>
+        <v>257059</v>
       </c>
       <c r="D508">
         <f t="shared" si="23"/>
@@ -16132,7 +16132,7 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="22"/>
-        <v>258064</v>
+        <v>258074</v>
       </c>
       <c r="D509">
         <f t="shared" si="23"/>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="22"/>
-        <v>259081</v>
+        <v>259091</v>
       </c>
       <c r="D510">
         <f t="shared" si="23"/>
@@ -16166,7 +16166,7 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="22"/>
-        <v>260100</v>
+        <v>260110</v>
       </c>
       <c r="D511">
         <f t="shared" si="23"/>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="22"/>
-        <v>261121</v>
+        <v>261131</v>
       </c>
       <c r="D512">
         <f t="shared" si="23"/>
@@ -16200,7 +16200,7 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="22"/>
-        <v>262144</v>
+        <v>262154</v>
       </c>
       <c r="D513">
         <f t="shared" si="23"/>

--- a/studios/studio4/Prob1.xlsx
+++ b/studios/studio4/Prob1.xlsx
@@ -32,16 +32,16 @@
     <t>n</t>
   </si>
   <si>
-    <t>Closed form
-FIXME</t>
-  </si>
-  <si>
     <t>Cell holding value
 at
 n-1</t>
   </si>
   <si>
     <t>T(n)=T(n-1)+2n-1</t>
+  </si>
+  <si>
+    <t>Closed form
+Solved</t>
   </si>
 </sst>
 </file>
@@ -3290,7 +3290,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Closed form_x000d_FIXME</c:v>
+                  <c:v>Closed form_x000d_Solved</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4869,1540 +4869,1540 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>2000.0</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4000.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000.0</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10000.0</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12000.0</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14000.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16000.0</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18000.0</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20000.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22000.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24000.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26000.0</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28000.0</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30000.0</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32000.0</c:v>
+                  <c:v>266.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34000.0</c:v>
+                  <c:v>299.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36000.0</c:v>
+                  <c:v>334.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38000.0</c:v>
+                  <c:v>371.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40000.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42000.0</c:v>
+                  <c:v>451.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44000.0</c:v>
+                  <c:v>494.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>46000.0</c:v>
+                  <c:v>539.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48000.0</c:v>
+                  <c:v>586.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50000.0</c:v>
+                  <c:v>635.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52000.0</c:v>
+                  <c:v>686.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>54000.0</c:v>
+                  <c:v>739.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>56000.0</c:v>
+                  <c:v>794.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>58000.0</c:v>
+                  <c:v>851.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>60000.0</c:v>
+                  <c:v>910.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62000.0</c:v>
+                  <c:v>971.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>64000.0</c:v>
+                  <c:v>1034.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>66000.0</c:v>
+                  <c:v>1099.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>68000.0</c:v>
+                  <c:v>1166.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>70000.0</c:v>
+                  <c:v>1235.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000.0</c:v>
+                  <c:v>1306.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>74000.0</c:v>
+                  <c:v>1379.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>76000.0</c:v>
+                  <c:v>1454.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>78000.0</c:v>
+                  <c:v>1531.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>80000.0</c:v>
+                  <c:v>1610.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>82000.0</c:v>
+                  <c:v>1691.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>84000.0</c:v>
+                  <c:v>1774.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>86000.0</c:v>
+                  <c:v>1859.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>88000.0</c:v>
+                  <c:v>1946.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>90000.0</c:v>
+                  <c:v>2035.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>92000.0</c:v>
+                  <c:v>2126.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>94000.0</c:v>
+                  <c:v>2219.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>96000.0</c:v>
+                  <c:v>2314.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>98000.0</c:v>
+                  <c:v>2411.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>100000.0</c:v>
+                  <c:v>2510.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>102000.0</c:v>
+                  <c:v>2611.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>104000.0</c:v>
+                  <c:v>2714.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>106000.0</c:v>
+                  <c:v>2819.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>108000.0</c:v>
+                  <c:v>2926.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>110000.0</c:v>
+                  <c:v>3035.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>112000.0</c:v>
+                  <c:v>3146.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>114000.0</c:v>
+                  <c:v>3259.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>116000.0</c:v>
+                  <c:v>3374.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118000.0</c:v>
+                  <c:v>3491.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>120000.0</c:v>
+                  <c:v>3610.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>122000.0</c:v>
+                  <c:v>3731.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>124000.0</c:v>
+                  <c:v>3854.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>126000.0</c:v>
+                  <c:v>3979.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128000.0</c:v>
+                  <c:v>4106.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>130000.0</c:v>
+                  <c:v>4235.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>132000.0</c:v>
+                  <c:v>4366.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>134000.0</c:v>
+                  <c:v>4499.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>136000.0</c:v>
+                  <c:v>4634.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>138000.0</c:v>
+                  <c:v>4771.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>140000.0</c:v>
+                  <c:v>4910.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>142000.0</c:v>
+                  <c:v>5051.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>144000.0</c:v>
+                  <c:v>5194.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>146000.0</c:v>
+                  <c:v>5339.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>148000.0</c:v>
+                  <c:v>5486.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>150000.0</c:v>
+                  <c:v>5635.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>152000.0</c:v>
+                  <c:v>5786.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>154000.0</c:v>
+                  <c:v>5939.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>156000.0</c:v>
+                  <c:v>6094.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>158000.0</c:v>
+                  <c:v>6251.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>160000.0</c:v>
+                  <c:v>6410.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>162000.0</c:v>
+                  <c:v>6571.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>164000.0</c:v>
+                  <c:v>6734.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>166000.0</c:v>
+                  <c:v>6899.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>168000.0</c:v>
+                  <c:v>7066.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>170000.0</c:v>
+                  <c:v>7235.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>172000.0</c:v>
+                  <c:v>7406.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>174000.0</c:v>
+                  <c:v>7579.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>176000.0</c:v>
+                  <c:v>7754.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>178000.0</c:v>
+                  <c:v>7931.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>180000.0</c:v>
+                  <c:v>8110.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>182000.0</c:v>
+                  <c:v>8291.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>184000.0</c:v>
+                  <c:v>8474.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>186000.0</c:v>
+                  <c:v>8659.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>188000.0</c:v>
+                  <c:v>8846.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>190000.0</c:v>
+                  <c:v>9035.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>192000.0</c:v>
+                  <c:v>9226.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>194000.0</c:v>
+                  <c:v>9419.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>196000.0</c:v>
+                  <c:v>9614.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>198000.0</c:v>
+                  <c:v>9811.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>200000.0</c:v>
+                  <c:v>10010.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>202000.0</c:v>
+                  <c:v>10211.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>204000.0</c:v>
+                  <c:v>10414.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>206000.0</c:v>
+                  <c:v>10619.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>208000.0</c:v>
+                  <c:v>10826.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>210000.0</c:v>
+                  <c:v>11035.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>212000.0</c:v>
+                  <c:v>11246.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>214000.0</c:v>
+                  <c:v>11459.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>216000.0</c:v>
+                  <c:v>11674.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>218000.0</c:v>
+                  <c:v>11891.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>220000.0</c:v>
+                  <c:v>12110.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>222000.0</c:v>
+                  <c:v>12331.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>224000.0</c:v>
+                  <c:v>12554.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>226000.0</c:v>
+                  <c:v>12779.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>228000.0</c:v>
+                  <c:v>13006.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>230000.0</c:v>
+                  <c:v>13235.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>232000.0</c:v>
+                  <c:v>13466.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>234000.0</c:v>
+                  <c:v>13699.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>236000.0</c:v>
+                  <c:v>13934.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>238000.0</c:v>
+                  <c:v>14171.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>240000.0</c:v>
+                  <c:v>14410.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>242000.0</c:v>
+                  <c:v>14651.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>244000.0</c:v>
+                  <c:v>14894.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>246000.0</c:v>
+                  <c:v>15139.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>248000.0</c:v>
+                  <c:v>15386.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>250000.0</c:v>
+                  <c:v>15635.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>252000.0</c:v>
+                  <c:v>15886.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>254000.0</c:v>
+                  <c:v>16139.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>256000.0</c:v>
+                  <c:v>16394.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>258000.0</c:v>
+                  <c:v>16651.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>260000.0</c:v>
+                  <c:v>16910.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>262000.0</c:v>
+                  <c:v>17171.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>264000.0</c:v>
+                  <c:v>17434.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>266000.0</c:v>
+                  <c:v>17699.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>268000.0</c:v>
+                  <c:v>17966.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>270000.0</c:v>
+                  <c:v>18235.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>272000.0</c:v>
+                  <c:v>18506.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>274000.0</c:v>
+                  <c:v>18779.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>276000.0</c:v>
+                  <c:v>19054.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>278000.0</c:v>
+                  <c:v>19331.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>280000.0</c:v>
+                  <c:v>19610.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>282000.0</c:v>
+                  <c:v>19891.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>284000.0</c:v>
+                  <c:v>20174.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>286000.0</c:v>
+                  <c:v>20459.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>288000.0</c:v>
+                  <c:v>20746.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>290000.0</c:v>
+                  <c:v>21035.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>292000.0</c:v>
+                  <c:v>21326.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>294000.0</c:v>
+                  <c:v>21619.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>296000.0</c:v>
+                  <c:v>21914.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>298000.0</c:v>
+                  <c:v>22211.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>300000.0</c:v>
+                  <c:v>22510.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>302000.0</c:v>
+                  <c:v>22811.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>304000.0</c:v>
+                  <c:v>23114.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>306000.0</c:v>
+                  <c:v>23419.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>308000.0</c:v>
+                  <c:v>23726.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>310000.0</c:v>
+                  <c:v>24035.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>312000.0</c:v>
+                  <c:v>24346.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>314000.0</c:v>
+                  <c:v>24659.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>316000.0</c:v>
+                  <c:v>24974.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>318000.0</c:v>
+                  <c:v>25291.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>320000.0</c:v>
+                  <c:v>25610.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>322000.0</c:v>
+                  <c:v>25931.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>324000.0</c:v>
+                  <c:v>26254.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>326000.0</c:v>
+                  <c:v>26579.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>328000.0</c:v>
+                  <c:v>26906.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>330000.0</c:v>
+                  <c:v>27235.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>332000.0</c:v>
+                  <c:v>27566.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>334000.0</c:v>
+                  <c:v>27899.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>336000.0</c:v>
+                  <c:v>28234.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>338000.0</c:v>
+                  <c:v>28571.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>340000.0</c:v>
+                  <c:v>28910.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>342000.0</c:v>
+                  <c:v>29251.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>344000.0</c:v>
+                  <c:v>29594.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>346000.0</c:v>
+                  <c:v>29939.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>348000.0</c:v>
+                  <c:v>30286.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>350000.0</c:v>
+                  <c:v>30635.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>352000.0</c:v>
+                  <c:v>30986.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>354000.0</c:v>
+                  <c:v>31339.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>356000.0</c:v>
+                  <c:v>31694.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>358000.0</c:v>
+                  <c:v>32051.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>360000.0</c:v>
+                  <c:v>32410.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>362000.0</c:v>
+                  <c:v>32771.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>364000.0</c:v>
+                  <c:v>33134.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>366000.0</c:v>
+                  <c:v>33499.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>368000.0</c:v>
+                  <c:v>33866.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>370000.0</c:v>
+                  <c:v>34235.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>372000.0</c:v>
+                  <c:v>34606.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>374000.0</c:v>
+                  <c:v>34979.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>376000.0</c:v>
+                  <c:v>35354.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>378000.0</c:v>
+                  <c:v>35731.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>380000.0</c:v>
+                  <c:v>36110.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>382000.0</c:v>
+                  <c:v>36491.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>384000.0</c:v>
+                  <c:v>36874.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>386000.0</c:v>
+                  <c:v>37259.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>388000.0</c:v>
+                  <c:v>37646.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>390000.0</c:v>
+                  <c:v>38035.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>392000.0</c:v>
+                  <c:v>38426.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>394000.0</c:v>
+                  <c:v>38819.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>396000.0</c:v>
+                  <c:v>39214.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>398000.0</c:v>
+                  <c:v>39611.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>400000.0</c:v>
+                  <c:v>40010.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>402000.0</c:v>
+                  <c:v>40411.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>404000.0</c:v>
+                  <c:v>40814.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>406000.0</c:v>
+                  <c:v>41219.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>408000.0</c:v>
+                  <c:v>41626.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>410000.0</c:v>
+                  <c:v>42035.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>412000.0</c:v>
+                  <c:v>42446.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>414000.0</c:v>
+                  <c:v>42859.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>416000.0</c:v>
+                  <c:v>43274.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>418000.0</c:v>
+                  <c:v>43691.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>420000.0</c:v>
+                  <c:v>44110.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>422000.0</c:v>
+                  <c:v>44531.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>424000.0</c:v>
+                  <c:v>44954.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>426000.0</c:v>
+                  <c:v>45379.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>428000.0</c:v>
+                  <c:v>45806.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>430000.0</c:v>
+                  <c:v>46235.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>432000.0</c:v>
+                  <c:v>46666.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>434000.0</c:v>
+                  <c:v>47099.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>436000.0</c:v>
+                  <c:v>47534.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>438000.0</c:v>
+                  <c:v>47971.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>440000.0</c:v>
+                  <c:v>48410.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>442000.0</c:v>
+                  <c:v>48851.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>444000.0</c:v>
+                  <c:v>49294.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>446000.0</c:v>
+                  <c:v>49739.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>448000.0</c:v>
+                  <c:v>50186.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>450000.0</c:v>
+                  <c:v>50635.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>452000.0</c:v>
+                  <c:v>51086.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>454000.0</c:v>
+                  <c:v>51539.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>456000.0</c:v>
+                  <c:v>51994.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>458000.0</c:v>
+                  <c:v>52451.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>460000.0</c:v>
+                  <c:v>52910.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>462000.0</c:v>
+                  <c:v>53371.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>464000.0</c:v>
+                  <c:v>53834.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>466000.0</c:v>
+                  <c:v>54299.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>468000.0</c:v>
+                  <c:v>54766.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>470000.0</c:v>
+                  <c:v>55235.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>472000.0</c:v>
+                  <c:v>55706.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>474000.0</c:v>
+                  <c:v>56179.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>476000.0</c:v>
+                  <c:v>56654.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>478000.0</c:v>
+                  <c:v>57131.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>480000.0</c:v>
+                  <c:v>57610.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>482000.0</c:v>
+                  <c:v>58091.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>484000.0</c:v>
+                  <c:v>58574.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>486000.0</c:v>
+                  <c:v>59059.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>488000.0</c:v>
+                  <c:v>59546.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>490000.0</c:v>
+                  <c:v>60035.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>492000.0</c:v>
+                  <c:v>60526.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>494000.0</c:v>
+                  <c:v>61019.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>496000.0</c:v>
+                  <c:v>61514.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>498000.0</c:v>
+                  <c:v>62011.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>500000.0</c:v>
+                  <c:v>62510.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>502000.0</c:v>
+                  <c:v>63011.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>504000.0</c:v>
+                  <c:v>63514.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>506000.0</c:v>
+                  <c:v>64019.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>508000.0</c:v>
+                  <c:v>64526.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>510000.0</c:v>
+                  <c:v>65035.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>512000.0</c:v>
+                  <c:v>65546.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>514000.0</c:v>
+                  <c:v>66059.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>516000.0</c:v>
+                  <c:v>66574.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>518000.0</c:v>
+                  <c:v>67091.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>520000.0</c:v>
+                  <c:v>67610.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>522000.0</c:v>
+                  <c:v>68131.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>524000.0</c:v>
+                  <c:v>68654.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>526000.0</c:v>
+                  <c:v>69179.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>528000.0</c:v>
+                  <c:v>69706.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>530000.0</c:v>
+                  <c:v>70235.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>532000.0</c:v>
+                  <c:v>70766.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>534000.0</c:v>
+                  <c:v>71299.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>536000.0</c:v>
+                  <c:v>71834.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>538000.0</c:v>
+                  <c:v>72371.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>540000.0</c:v>
+                  <c:v>72910.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>542000.0</c:v>
+                  <c:v>73451.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>544000.0</c:v>
+                  <c:v>73994.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>546000.0</c:v>
+                  <c:v>74539.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>548000.0</c:v>
+                  <c:v>75086.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>550000.0</c:v>
+                  <c:v>75635.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>552000.0</c:v>
+                  <c:v>76186.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>554000.0</c:v>
+                  <c:v>76739.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>556000.0</c:v>
+                  <c:v>77294.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>558000.0</c:v>
+                  <c:v>77851.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>560000.0</c:v>
+                  <c:v>78410.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>562000.0</c:v>
+                  <c:v>78971.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>564000.0</c:v>
+                  <c:v>79534.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>566000.0</c:v>
+                  <c:v>80099.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>568000.0</c:v>
+                  <c:v>80666.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>570000.0</c:v>
+                  <c:v>81235.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>572000.0</c:v>
+                  <c:v>81806.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>574000.0</c:v>
+                  <c:v>82379.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>576000.0</c:v>
+                  <c:v>82954.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>578000.0</c:v>
+                  <c:v>83531.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>580000.0</c:v>
+                  <c:v>84110.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>582000.0</c:v>
+                  <c:v>84691.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>584000.0</c:v>
+                  <c:v>85274.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>586000.0</c:v>
+                  <c:v>85859.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>588000.0</c:v>
+                  <c:v>86446.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>590000.0</c:v>
+                  <c:v>87035.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>592000.0</c:v>
+                  <c:v>87626.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>594000.0</c:v>
+                  <c:v>88219.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>596000.0</c:v>
+                  <c:v>88814.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>598000.0</c:v>
+                  <c:v>89411.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>600000.0</c:v>
+                  <c:v>90010.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>602000.0</c:v>
+                  <c:v>90611.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>604000.0</c:v>
+                  <c:v>91214.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>606000.0</c:v>
+                  <c:v>91819.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>608000.0</c:v>
+                  <c:v>92426.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>610000.0</c:v>
+                  <c:v>93035.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>612000.0</c:v>
+                  <c:v>93646.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>614000.0</c:v>
+                  <c:v>94259.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>616000.0</c:v>
+                  <c:v>94874.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>618000.0</c:v>
+                  <c:v>95491.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>620000.0</c:v>
+                  <c:v>96110.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>622000.0</c:v>
+                  <c:v>96731.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>624000.0</c:v>
+                  <c:v>97354.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>626000.0</c:v>
+                  <c:v>97979.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>628000.0</c:v>
+                  <c:v>98606.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>630000.0</c:v>
+                  <c:v>99235.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>632000.0</c:v>
+                  <c:v>99866.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>634000.0</c:v>
+                  <c:v>100499.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>636000.0</c:v>
+                  <c:v>101134.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>638000.0</c:v>
+                  <c:v>101771.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>640000.0</c:v>
+                  <c:v>102410.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>642000.0</c:v>
+                  <c:v>103051.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>644000.0</c:v>
+                  <c:v>103694.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>646000.0</c:v>
+                  <c:v>104339.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>648000.0</c:v>
+                  <c:v>104986.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>650000.0</c:v>
+                  <c:v>105635.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>652000.0</c:v>
+                  <c:v>106286.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>654000.0</c:v>
+                  <c:v>106939.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>656000.0</c:v>
+                  <c:v>107594.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>658000.0</c:v>
+                  <c:v>108251.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>660000.0</c:v>
+                  <c:v>108910.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>662000.0</c:v>
+                  <c:v>109571.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>664000.0</c:v>
+                  <c:v>110234.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>666000.0</c:v>
+                  <c:v>110899.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>668000.0</c:v>
+                  <c:v>111566.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>670000.0</c:v>
+                  <c:v>112235.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>672000.0</c:v>
+                  <c:v>112906.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>674000.0</c:v>
+                  <c:v>113579.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>676000.0</c:v>
+                  <c:v>114254.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>678000.0</c:v>
+                  <c:v>114931.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>680000.0</c:v>
+                  <c:v>115610.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>682000.0</c:v>
+                  <c:v>116291.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>684000.0</c:v>
+                  <c:v>116974.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>686000.0</c:v>
+                  <c:v>117659.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>688000.0</c:v>
+                  <c:v>118346.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>690000.0</c:v>
+                  <c:v>119035.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>692000.0</c:v>
+                  <c:v>119726.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>694000.0</c:v>
+                  <c:v>120419.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>696000.0</c:v>
+                  <c:v>121114.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>698000.0</c:v>
+                  <c:v>121811.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>700000.0</c:v>
+                  <c:v>122510.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>702000.0</c:v>
+                  <c:v>123211.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>704000.0</c:v>
+                  <c:v>123914.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>706000.0</c:v>
+                  <c:v>124619.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>708000.0</c:v>
+                  <c:v>125326.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>710000.0</c:v>
+                  <c:v>126035.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>712000.0</c:v>
+                  <c:v>126746.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>714000.0</c:v>
+                  <c:v>127459.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>716000.0</c:v>
+                  <c:v>128174.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>718000.0</c:v>
+                  <c:v>128891.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>720000.0</c:v>
+                  <c:v>129610.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>722000.0</c:v>
+                  <c:v>130331.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>724000.0</c:v>
+                  <c:v>131054.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>726000.0</c:v>
+                  <c:v>131779.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>728000.0</c:v>
+                  <c:v>132506.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>730000.0</c:v>
+                  <c:v>133235.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>732000.0</c:v>
+                  <c:v>133966.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>734000.0</c:v>
+                  <c:v>134699.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>736000.0</c:v>
+                  <c:v>135434.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>738000.0</c:v>
+                  <c:v>136171.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>740000.0</c:v>
+                  <c:v>136910.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>742000.0</c:v>
+                  <c:v>137651.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>744000.0</c:v>
+                  <c:v>138394.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>746000.0</c:v>
+                  <c:v>139139.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>748000.0</c:v>
+                  <c:v>139886.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>750000.0</c:v>
+                  <c:v>140635.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>752000.0</c:v>
+                  <c:v>141386.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>754000.0</c:v>
+                  <c:v>142139.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>756000.0</c:v>
+                  <c:v>142894.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>758000.0</c:v>
+                  <c:v>143651.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>760000.0</c:v>
+                  <c:v>144410.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>762000.0</c:v>
+                  <c:v>145171.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>764000.0</c:v>
+                  <c:v>145934.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>766000.0</c:v>
+                  <c:v>146699.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>768000.0</c:v>
+                  <c:v>147466.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>770000.0</c:v>
+                  <c:v>148235.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>772000.0</c:v>
+                  <c:v>149006.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>774000.0</c:v>
+                  <c:v>149779.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>776000.0</c:v>
+                  <c:v>150554.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>778000.0</c:v>
+                  <c:v>151331.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>780000.0</c:v>
+                  <c:v>152110.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>782000.0</c:v>
+                  <c:v>152891.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>784000.0</c:v>
+                  <c:v>153674.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>786000.0</c:v>
+                  <c:v>154459.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>788000.0</c:v>
+                  <c:v>155246.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>790000.0</c:v>
+                  <c:v>156035.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>792000.0</c:v>
+                  <c:v>156826.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>794000.0</c:v>
+                  <c:v>157619.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>796000.0</c:v>
+                  <c:v>158414.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>798000.0</c:v>
+                  <c:v>159211.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>800000.0</c:v>
+                  <c:v>160010.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>802000.0</c:v>
+                  <c:v>160811.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>804000.0</c:v>
+                  <c:v>161614.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>806000.0</c:v>
+                  <c:v>162419.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>808000.0</c:v>
+                  <c:v>163226.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>810000.0</c:v>
+                  <c:v>164035.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>812000.0</c:v>
+                  <c:v>164846.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>814000.0</c:v>
+                  <c:v>165659.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>816000.0</c:v>
+                  <c:v>166474.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>818000.0</c:v>
+                  <c:v>167291.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>820000.0</c:v>
+                  <c:v>168110.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>822000.0</c:v>
+                  <c:v>168931.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>824000.0</c:v>
+                  <c:v>169754.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>826000.0</c:v>
+                  <c:v>170579.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>828000.0</c:v>
+                  <c:v>171406.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>830000.0</c:v>
+                  <c:v>172235.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>832000.0</c:v>
+                  <c:v>173066.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>834000.0</c:v>
+                  <c:v>173899.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>836000.0</c:v>
+                  <c:v>174734.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>838000.0</c:v>
+                  <c:v>175571.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>840000.0</c:v>
+                  <c:v>176410.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>842000.0</c:v>
+                  <c:v>177251.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>844000.0</c:v>
+                  <c:v>178094.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>846000.0</c:v>
+                  <c:v>178939.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>848000.0</c:v>
+                  <c:v>179786.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>850000.0</c:v>
+                  <c:v>180635.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>852000.0</c:v>
+                  <c:v>181486.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>854000.0</c:v>
+                  <c:v>182339.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>856000.0</c:v>
+                  <c:v>183194.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>858000.0</c:v>
+                  <c:v>184051.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>860000.0</c:v>
+                  <c:v>184910.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>862000.0</c:v>
+                  <c:v>185771.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>864000.0</c:v>
+                  <c:v>186634.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>866000.0</c:v>
+                  <c:v>187499.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>868000.0</c:v>
+                  <c:v>188366.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>870000.0</c:v>
+                  <c:v>189235.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>872000.0</c:v>
+                  <c:v>190106.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>874000.0</c:v>
+                  <c:v>190979.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>876000.0</c:v>
+                  <c:v>191854.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>878000.0</c:v>
+                  <c:v>192731.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>880000.0</c:v>
+                  <c:v>193610.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>882000.0</c:v>
+                  <c:v>194491.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>884000.0</c:v>
+                  <c:v>195374.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>886000.0</c:v>
+                  <c:v>196259.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>888000.0</c:v>
+                  <c:v>197146.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>890000.0</c:v>
+                  <c:v>198035.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>892000.0</c:v>
+                  <c:v>198926.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>894000.0</c:v>
+                  <c:v>199819.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>896000.0</c:v>
+                  <c:v>200714.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>898000.0</c:v>
+                  <c:v>201611.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>900000.0</c:v>
+                  <c:v>202510.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>902000.0</c:v>
+                  <c:v>203411.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>904000.0</c:v>
+                  <c:v>204314.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>906000.0</c:v>
+                  <c:v>205219.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>908000.0</c:v>
+                  <c:v>206126.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>910000.0</c:v>
+                  <c:v>207035.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>912000.0</c:v>
+                  <c:v>207946.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>914000.0</c:v>
+                  <c:v>208859.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>916000.0</c:v>
+                  <c:v>209774.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>918000.0</c:v>
+                  <c:v>210691.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>920000.0</c:v>
+                  <c:v>211610.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>922000.0</c:v>
+                  <c:v>212531.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>924000.0</c:v>
+                  <c:v>213454.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>926000.0</c:v>
+                  <c:v>214379.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>928000.0</c:v>
+                  <c:v>215306.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>930000.0</c:v>
+                  <c:v>216235.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>932000.0</c:v>
+                  <c:v>217166.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>934000.0</c:v>
+                  <c:v>218099.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>936000.0</c:v>
+                  <c:v>219034.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>938000.0</c:v>
+                  <c:v>219971.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>940000.0</c:v>
+                  <c:v>220910.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>942000.0</c:v>
+                  <c:v>221851.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>944000.0</c:v>
+                  <c:v>222794.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>946000.0</c:v>
+                  <c:v>223739.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>948000.0</c:v>
+                  <c:v>224686.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>950000.0</c:v>
+                  <c:v>225635.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>952000.0</c:v>
+                  <c:v>226586.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>954000.0</c:v>
+                  <c:v>227539.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>956000.0</c:v>
+                  <c:v>228494.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>958000.0</c:v>
+                  <c:v>229451.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>960000.0</c:v>
+                  <c:v>230410.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>962000.0</c:v>
+                  <c:v>231371.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>964000.0</c:v>
+                  <c:v>232334.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>966000.0</c:v>
+                  <c:v>233299.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>968000.0</c:v>
+                  <c:v>234266.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>970000.0</c:v>
+                  <c:v>235235.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>972000.0</c:v>
+                  <c:v>236206.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>974000.0</c:v>
+                  <c:v>237179.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>976000.0</c:v>
+                  <c:v>238154.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>978000.0</c:v>
+                  <c:v>239131.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>980000.0</c:v>
+                  <c:v>240110.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>982000.0</c:v>
+                  <c:v>241091.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>984000.0</c:v>
+                  <c:v>242074.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>986000.0</c:v>
+                  <c:v>243059.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>988000.0</c:v>
+                  <c:v>244046.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>990000.0</c:v>
+                  <c:v>245035.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>992000.0</c:v>
+                  <c:v>246026.0</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>994000.0</c:v>
+                  <c:v>247019.0</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>996000.0</c:v>
+                  <c:v>248014.0</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>998000.0</c:v>
+                  <c:v>249011.0</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>1.0E6</c:v>
+                  <c:v>250010.0</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>1.002E6</c:v>
+                  <c:v>251011.0</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>1.004E6</c:v>
+                  <c:v>252014.0</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>1.006E6</c:v>
+                  <c:v>253019.0</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>1.008E6</c:v>
+                  <c:v>254026.0</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>1.01E6</c:v>
+                  <c:v>255035.0</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>1.012E6</c:v>
+                  <c:v>256046.0</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>1.014E6</c:v>
+                  <c:v>257059.0</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>1.016E6</c:v>
+                  <c:v>258074.0</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>1.018E6</c:v>
+                  <c:v>259091.0</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>1.02E6</c:v>
+                  <c:v>260110.0</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>1.022E6</c:v>
+                  <c:v>261131.0</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>1.024E6</c:v>
+                  <c:v>262154.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6417,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280178288"/>
-        <c:axId val="280182848"/>
+        <c:axId val="553396384"/>
+        <c:axId val="553400944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280178288"/>
+        <c:axId val="553396384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6477,12 +6477,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280182848"/>
+        <c:crossAx val="553400944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280182848"/>
+        <c:axId val="553400944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6538,7 +6538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280178288"/>
+        <c:crossAx val="553396384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7476,7 +7476,7 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7491,13 +7491,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="F1">
         <v>10</v>
@@ -7516,8 +7516,8 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <f>2000*A2</f>
-        <v>2000</v>
+        <f>A2*A2+10</f>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -7533,8 +7533,8 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">2000*A3</f>
-        <v>4000</v>
+        <f t="shared" ref="D3:D66" si="2">A3*A3+10</f>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -7602,7 +7602,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -7619,7 +7619,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>14000</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -7636,7 +7636,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>16000</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>20000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>22000</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -7704,7 +7704,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>24000</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>26000</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -7738,7 +7738,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>28000</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -7755,7 +7755,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>32000</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -7789,7 +7789,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>34000</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -7823,7 +7823,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>38000</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -7840,7 +7840,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>40000</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>42000</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -7874,7 +7874,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>539</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -7908,7 +7908,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>48000</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>50000</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -7942,7 +7942,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>52000</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>54000</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7976,7 +7976,7 @@
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>56000</v>
+        <v>794</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>58000</v>
+        <v>851</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>60000</v>
+        <v>910</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>62000</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>64000</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>66000</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>68000</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -8095,7 +8095,7 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>70000</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -8112,7 +8112,7 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>72000</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>74000</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -8146,7 +8146,7 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>76000</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -8163,7 +8163,7 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>78000</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>82000</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -8214,7 +8214,7 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>84000</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>86000</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>88000</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -8282,7 +8282,7 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>92000</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>94000</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>96000</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -8333,7 +8333,7 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>98000</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>100000</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>102000</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>104000</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -8401,7 +8401,7 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>106000</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -8418,7 +8418,7 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>108000</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -8435,7 +8435,7 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>110000</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>112000</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>114000</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>116000</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>118000</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>120000</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -8537,7 +8537,7 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>122000</v>
+        <v>3731</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>124000</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -8571,7 +8571,7 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>126000</v>
+        <v>3979</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>128000</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>130000</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -8621,8 +8621,8 @@
         <v>4366</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="5">2000*A67</f>
-        <v>132000</v>
+        <f t="shared" ref="D67:D130" si="5">A67*A67+10</f>
+        <v>4366</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -8639,7 +8639,7 @@
       </c>
       <c r="D68">
         <f t="shared" si="5"/>
-        <v>134000</v>
+        <v>4499</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="D69">
         <f t="shared" si="5"/>
-        <v>136000</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="D70">
         <f t="shared" si="5"/>
-        <v>138000</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D71">
         <f t="shared" si="5"/>
-        <v>140000</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="D72">
         <f t="shared" si="5"/>
-        <v>142000</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="D73">
         <f t="shared" si="5"/>
-        <v>144000</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -8741,7 +8741,7 @@
       </c>
       <c r="D74">
         <f t="shared" si="5"/>
-        <v>146000</v>
+        <v>5339</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -8758,7 +8758,7 @@
       </c>
       <c r="D75">
         <f t="shared" si="5"/>
-        <v>148000</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -8775,7 +8775,7 @@
       </c>
       <c r="D76">
         <f t="shared" si="5"/>
-        <v>150000</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -8792,7 +8792,7 @@
       </c>
       <c r="D77">
         <f t="shared" si="5"/>
-        <v>152000</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -8809,7 +8809,7 @@
       </c>
       <c r="D78">
         <f t="shared" si="5"/>
-        <v>154000</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="D79">
         <f t="shared" si="5"/>
-        <v>156000</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -8843,7 +8843,7 @@
       </c>
       <c r="D80">
         <f t="shared" si="5"/>
-        <v>158000</v>
+        <v>6251</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="D81">
         <f t="shared" si="5"/>
-        <v>160000</v>
+        <v>6410</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="D82">
         <f t="shared" si="5"/>
-        <v>162000</v>
+        <v>6571</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="D83">
         <f t="shared" si="5"/>
-        <v>164000</v>
+        <v>6734</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="D84">
         <f t="shared" si="5"/>
-        <v>166000</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -8928,7 +8928,7 @@
       </c>
       <c r="D85">
         <f t="shared" si="5"/>
-        <v>168000</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="D86">
         <f t="shared" si="5"/>
-        <v>170000</v>
+        <v>7235</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="D87">
         <f t="shared" si="5"/>
-        <v>172000</v>
+        <v>7406</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D88">
         <f t="shared" si="5"/>
-        <v>174000</v>
+        <v>7579</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="D89">
         <f t="shared" si="5"/>
-        <v>176000</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="D90">
         <f t="shared" si="5"/>
-        <v>178000</v>
+        <v>7931</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -9030,7 +9030,7 @@
       </c>
       <c r="D91">
         <f t="shared" si="5"/>
-        <v>180000</v>
+        <v>8110</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="D92">
         <f t="shared" si="5"/>
-        <v>182000</v>
+        <v>8291</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="D93">
         <f t="shared" si="5"/>
-        <v>184000</v>
+        <v>8474</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="D94">
         <f t="shared" si="5"/>
-        <v>186000</v>
+        <v>8659</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="D95">
         <f t="shared" si="5"/>
-        <v>188000</v>
+        <v>8846</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -9115,7 +9115,7 @@
       </c>
       <c r="D96">
         <f t="shared" si="5"/>
-        <v>190000</v>
+        <v>9035</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -9132,7 +9132,7 @@
       </c>
       <c r="D97">
         <f t="shared" si="5"/>
-        <v>192000</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -9149,7 +9149,7 @@
       </c>
       <c r="D98">
         <f t="shared" si="5"/>
-        <v>194000</v>
+        <v>9419</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="D99">
         <f t="shared" si="5"/>
-        <v>196000</v>
+        <v>9614</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="D100">
         <f t="shared" si="5"/>
-        <v>198000</v>
+        <v>9811</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="D101">
         <f t="shared" si="5"/>
-        <v>200000</v>
+        <v>10010</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D102">
         <f t="shared" si="5"/>
-        <v>202000</v>
+        <v>10211</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -9234,7 +9234,7 @@
       </c>
       <c r="D103">
         <f t="shared" si="5"/>
-        <v>204000</v>
+        <v>10414</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="D104">
         <f t="shared" si="5"/>
-        <v>206000</v>
+        <v>10619</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="D105">
         <f t="shared" si="5"/>
-        <v>208000</v>
+        <v>10826</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="D106">
         <f t="shared" si="5"/>
-        <v>210000</v>
+        <v>11035</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="D107">
         <f t="shared" si="5"/>
-        <v>212000</v>
+        <v>11246</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -9319,7 +9319,7 @@
       </c>
       <c r="D108">
         <f t="shared" si="5"/>
-        <v>214000</v>
+        <v>11459</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="D109">
         <f t="shared" si="5"/>
-        <v>216000</v>
+        <v>11674</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -9353,7 +9353,7 @@
       </c>
       <c r="D110">
         <f t="shared" si="5"/>
-        <v>218000</v>
+        <v>11891</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -9370,7 +9370,7 @@
       </c>
       <c r="D111">
         <f t="shared" si="5"/>
-        <v>220000</v>
+        <v>12110</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -9387,7 +9387,7 @@
       </c>
       <c r="D112">
         <f t="shared" si="5"/>
-        <v>222000</v>
+        <v>12331</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -9404,7 +9404,7 @@
       </c>
       <c r="D113">
         <f t="shared" si="5"/>
-        <v>224000</v>
+        <v>12554</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -9421,7 +9421,7 @@
       </c>
       <c r="D114">
         <f t="shared" si="5"/>
-        <v>226000</v>
+        <v>12779</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="D115">
         <f t="shared" si="5"/>
-        <v>228000</v>
+        <v>13006</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D116">
         <f t="shared" si="5"/>
-        <v>230000</v>
+        <v>13235</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="D117">
         <f t="shared" si="5"/>
-        <v>232000</v>
+        <v>13466</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -9489,7 +9489,7 @@
       </c>
       <c r="D118">
         <f t="shared" si="5"/>
-        <v>234000</v>
+        <v>13699</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -9506,7 +9506,7 @@
       </c>
       <c r="D119">
         <f t="shared" si="5"/>
-        <v>236000</v>
+        <v>13934</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -9523,7 +9523,7 @@
       </c>
       <c r="D120">
         <f t="shared" si="5"/>
-        <v>238000</v>
+        <v>14171</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -9540,7 +9540,7 @@
       </c>
       <c r="D121">
         <f t="shared" si="5"/>
-        <v>240000</v>
+        <v>14410</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -9557,7 +9557,7 @@
       </c>
       <c r="D122">
         <f t="shared" si="5"/>
-        <v>242000</v>
+        <v>14651</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -9574,7 +9574,7 @@
       </c>
       <c r="D123">
         <f t="shared" si="5"/>
-        <v>244000</v>
+        <v>14894</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -9591,7 +9591,7 @@
       </c>
       <c r="D124">
         <f t="shared" si="5"/>
-        <v>246000</v>
+        <v>15139</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D125">
         <f t="shared" si="5"/>
-        <v>248000</v>
+        <v>15386</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="D126">
         <f t="shared" si="5"/>
-        <v>250000</v>
+        <v>15635</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="D127">
         <f t="shared" si="5"/>
-        <v>252000</v>
+        <v>15886</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="D128">
         <f t="shared" si="5"/>
-        <v>254000</v>
+        <v>16139</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -9676,7 +9676,7 @@
       </c>
       <c r="D129">
         <f t="shared" si="5"/>
-        <v>256000</v>
+        <v>16394</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -9693,7 +9693,7 @@
       </c>
       <c r="D130">
         <f t="shared" si="5"/>
-        <v>258000</v>
+        <v>16651</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -9709,8 +9709,8 @@
         <v>16910</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="8">2000*A131</f>
-        <v>260000</v>
+        <f t="shared" ref="D131:D194" si="8">A131*A131+10</f>
+        <v>16910</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
       </c>
       <c r="D132">
         <f t="shared" si="8"/>
-        <v>262000</v>
+        <v>17171</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -9744,7 +9744,7 @@
       </c>
       <c r="D133">
         <f t="shared" si="8"/>
-        <v>264000</v>
+        <v>17434</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="D134">
         <f t="shared" si="8"/>
-        <v>266000</v>
+        <v>17699</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="D135">
         <f t="shared" si="8"/>
-        <v>268000</v>
+        <v>17966</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="D136">
         <f t="shared" si="8"/>
-        <v>270000</v>
+        <v>18235</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="D137">
         <f t="shared" si="8"/>
-        <v>272000</v>
+        <v>18506</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -9829,7 +9829,7 @@
       </c>
       <c r="D138">
         <f t="shared" si="8"/>
-        <v>274000</v>
+        <v>18779</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="D139">
         <f t="shared" si="8"/>
-        <v>276000</v>
+        <v>19054</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="D140">
         <f t="shared" si="8"/>
-        <v>278000</v>
+        <v>19331</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -9880,7 +9880,7 @@
       </c>
       <c r="D141">
         <f t="shared" si="8"/>
-        <v>280000</v>
+        <v>19610</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="D142">
         <f t="shared" si="8"/>
-        <v>282000</v>
+        <v>19891</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
       </c>
       <c r="D143">
         <f t="shared" si="8"/>
-        <v>284000</v>
+        <v>20174</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D144">
         <f t="shared" si="8"/>
-        <v>286000</v>
+        <v>20459</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="D145">
         <f t="shared" si="8"/>
-        <v>288000</v>
+        <v>20746</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="D146">
         <f t="shared" si="8"/>
-        <v>290000</v>
+        <v>21035</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="D147">
         <f t="shared" si="8"/>
-        <v>292000</v>
+        <v>21326</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -9999,7 +9999,7 @@
       </c>
       <c r="D148">
         <f t="shared" si="8"/>
-        <v>294000</v>
+        <v>21619</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="D149">
         <f t="shared" si="8"/>
-        <v>296000</v>
+        <v>21914</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -10033,7 +10033,7 @@
       </c>
       <c r="D150">
         <f t="shared" si="8"/>
-        <v>298000</v>
+        <v>22211</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -10050,7 +10050,7 @@
       </c>
       <c r="D151">
         <f t="shared" si="8"/>
-        <v>300000</v>
+        <v>22510</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -10067,7 +10067,7 @@
       </c>
       <c r="D152">
         <f t="shared" si="8"/>
-        <v>302000</v>
+        <v>22811</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="D153">
         <f t="shared" si="8"/>
-        <v>304000</v>
+        <v>23114</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="D154">
         <f t="shared" si="8"/>
-        <v>306000</v>
+        <v>23419</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="D155">
         <f t="shared" si="8"/>
-        <v>308000</v>
+        <v>23726</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D156">
         <f t="shared" si="8"/>
-        <v>310000</v>
+        <v>24035</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="D157">
         <f t="shared" si="8"/>
-        <v>312000</v>
+        <v>24346</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="D158">
         <f t="shared" si="8"/>
-        <v>314000</v>
+        <v>24659</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -10186,7 +10186,7 @@
       </c>
       <c r="D159">
         <f t="shared" si="8"/>
-        <v>316000</v>
+        <v>24974</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -10203,7 +10203,7 @@
       </c>
       <c r="D160">
         <f t="shared" si="8"/>
-        <v>318000</v>
+        <v>25291</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -10220,7 +10220,7 @@
       </c>
       <c r="D161">
         <f t="shared" si="8"/>
-        <v>320000</v>
+        <v>25610</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -10237,7 +10237,7 @@
       </c>
       <c r="D162">
         <f t="shared" si="8"/>
-        <v>322000</v>
+        <v>25931</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -10254,7 +10254,7 @@
       </c>
       <c r="D163">
         <f t="shared" si="8"/>
-        <v>324000</v>
+        <v>26254</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="D164">
         <f t="shared" si="8"/>
-        <v>326000</v>
+        <v>26579</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="D165">
         <f t="shared" si="8"/>
-        <v>328000</v>
+        <v>26906</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="D166">
         <f t="shared" si="8"/>
-        <v>330000</v>
+        <v>27235</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="D167">
         <f t="shared" si="8"/>
-        <v>332000</v>
+        <v>27566</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -10339,7 +10339,7 @@
       </c>
       <c r="D168">
         <f t="shared" si="8"/>
-        <v>334000</v>
+        <v>27899</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="D169">
         <f t="shared" si="8"/>
-        <v>336000</v>
+        <v>28234</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="D170">
         <f t="shared" si="8"/>
-        <v>338000</v>
+        <v>28571</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="D171">
         <f t="shared" si="8"/>
-        <v>340000</v>
+        <v>28910</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="D172">
         <f t="shared" si="8"/>
-        <v>342000</v>
+        <v>29251</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="D173">
         <f t="shared" si="8"/>
-        <v>344000</v>
+        <v>29594</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -10441,7 +10441,7 @@
       </c>
       <c r="D174">
         <f t="shared" si="8"/>
-        <v>346000</v>
+        <v>29939</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -10458,7 +10458,7 @@
       </c>
       <c r="D175">
         <f t="shared" si="8"/>
-        <v>348000</v>
+        <v>30286</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="D176">
         <f t="shared" si="8"/>
-        <v>350000</v>
+        <v>30635</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="D177">
         <f t="shared" si="8"/>
-        <v>352000</v>
+        <v>30986</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="D178">
         <f t="shared" si="8"/>
-        <v>354000</v>
+        <v>31339</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -10526,7 +10526,7 @@
       </c>
       <c r="D179">
         <f t="shared" si="8"/>
-        <v>356000</v>
+        <v>31694</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -10543,7 +10543,7 @@
       </c>
       <c r="D180">
         <f t="shared" si="8"/>
-        <v>358000</v>
+        <v>32051</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -10560,7 +10560,7 @@
       </c>
       <c r="D181">
         <f t="shared" si="8"/>
-        <v>360000</v>
+        <v>32410</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="D182">
         <f t="shared" si="8"/>
-        <v>362000</v>
+        <v>32771</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="D183">
         <f t="shared" si="8"/>
-        <v>364000</v>
+        <v>33134</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -10611,7 +10611,7 @@
       </c>
       <c r="D184">
         <f t="shared" si="8"/>
-        <v>366000</v>
+        <v>33499</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -10628,7 +10628,7 @@
       </c>
       <c r="D185">
         <f t="shared" si="8"/>
-        <v>368000</v>
+        <v>33866</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -10645,7 +10645,7 @@
       </c>
       <c r="D186">
         <f t="shared" si="8"/>
-        <v>370000</v>
+        <v>34235</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -10662,7 +10662,7 @@
       </c>
       <c r="D187">
         <f t="shared" si="8"/>
-        <v>372000</v>
+        <v>34606</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -10679,7 +10679,7 @@
       </c>
       <c r="D188">
         <f t="shared" si="8"/>
-        <v>374000</v>
+        <v>34979</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="D189">
         <f t="shared" si="8"/>
-        <v>376000</v>
+        <v>35354</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="D190">
         <f t="shared" si="8"/>
-        <v>378000</v>
+        <v>35731</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="D191">
         <f t="shared" si="8"/>
-        <v>380000</v>
+        <v>36110</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -10747,7 +10747,7 @@
       </c>
       <c r="D192">
         <f t="shared" si="8"/>
-        <v>382000</v>
+        <v>36491</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="D193">
         <f t="shared" si="8"/>
-        <v>384000</v>
+        <v>36874</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -10781,7 +10781,7 @@
       </c>
       <c r="D194">
         <f t="shared" si="8"/>
-        <v>386000</v>
+        <v>37259</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -10797,8 +10797,8 @@
         <v>37646</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="11">2000*A195</f>
-        <v>388000</v>
+        <f t="shared" ref="D195:D258" si="11">A195*A195+10</f>
+        <v>37646</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -10815,7 +10815,7 @@
       </c>
       <c r="D196">
         <f t="shared" si="11"/>
-        <v>390000</v>
+        <v>38035</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -10832,7 +10832,7 @@
       </c>
       <c r="D197">
         <f t="shared" si="11"/>
-        <v>392000</v>
+        <v>38426</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -10849,7 +10849,7 @@
       </c>
       <c r="D198">
         <f t="shared" si="11"/>
-        <v>394000</v>
+        <v>38819</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="D199">
         <f t="shared" si="11"/>
-        <v>396000</v>
+        <v>39214</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D200">
         <f t="shared" si="11"/>
-        <v>398000</v>
+        <v>39611</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -10900,7 +10900,7 @@
       </c>
       <c r="D201">
         <f t="shared" si="11"/>
-        <v>400000</v>
+        <v>40010</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="D202">
         <f t="shared" si="11"/>
-        <v>402000</v>
+        <v>40411</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -10934,7 +10934,7 @@
       </c>
       <c r="D203">
         <f t="shared" si="11"/>
-        <v>404000</v>
+        <v>40814</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="D204">
         <f t="shared" si="11"/>
-        <v>406000</v>
+        <v>41219</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="D205">
         <f t="shared" si="11"/>
-        <v>408000</v>
+        <v>41626</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -10985,7 +10985,7 @@
       </c>
       <c r="D206">
         <f t="shared" si="11"/>
-        <v>410000</v>
+        <v>42035</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -11002,7 +11002,7 @@
       </c>
       <c r="D207">
         <f t="shared" si="11"/>
-        <v>412000</v>
+        <v>42446</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -11019,7 +11019,7 @@
       </c>
       <c r="D208">
         <f t="shared" si="11"/>
-        <v>414000</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="D209">
         <f t="shared" si="11"/>
-        <v>416000</v>
+        <v>43274</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -11053,7 +11053,7 @@
       </c>
       <c r="D210">
         <f t="shared" si="11"/>
-        <v>418000</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -11070,7 +11070,7 @@
       </c>
       <c r="D211">
         <f t="shared" si="11"/>
-        <v>420000</v>
+        <v>44110</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -11087,7 +11087,7 @@
       </c>
       <c r="D212">
         <f t="shared" si="11"/>
-        <v>422000</v>
+        <v>44531</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -11104,7 +11104,7 @@
       </c>
       <c r="D213">
         <f t="shared" si="11"/>
-        <v>424000</v>
+        <v>44954</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -11121,7 +11121,7 @@
       </c>
       <c r="D214">
         <f t="shared" si="11"/>
-        <v>426000</v>
+        <v>45379</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -11138,7 +11138,7 @@
       </c>
       <c r="D215">
         <f t="shared" si="11"/>
-        <v>428000</v>
+        <v>45806</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -11155,7 +11155,7 @@
       </c>
       <c r="D216">
         <f t="shared" si="11"/>
-        <v>430000</v>
+        <v>46235</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -11172,7 +11172,7 @@
       </c>
       <c r="D217">
         <f t="shared" si="11"/>
-        <v>432000</v>
+        <v>46666</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="D218">
         <f t="shared" si="11"/>
-        <v>434000</v>
+        <v>47099</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="D219">
         <f t="shared" si="11"/>
-        <v>436000</v>
+        <v>47534</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="D220">
         <f t="shared" si="11"/>
-        <v>438000</v>
+        <v>47971</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -11240,7 +11240,7 @@
       </c>
       <c r="D221">
         <f t="shared" si="11"/>
-        <v>440000</v>
+        <v>48410</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -11257,7 +11257,7 @@
       </c>
       <c r="D222">
         <f t="shared" si="11"/>
-        <v>442000</v>
+        <v>48851</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -11274,7 +11274,7 @@
       </c>
       <c r="D223">
         <f t="shared" si="11"/>
-        <v>444000</v>
+        <v>49294</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -11291,7 +11291,7 @@
       </c>
       <c r="D224">
         <f t="shared" si="11"/>
-        <v>446000</v>
+        <v>49739</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -11308,7 +11308,7 @@
       </c>
       <c r="D225">
         <f t="shared" si="11"/>
-        <v>448000</v>
+        <v>50186</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="D226">
         <f t="shared" si="11"/>
-        <v>450000</v>
+        <v>50635</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="D227">
         <f t="shared" si="11"/>
-        <v>452000</v>
+        <v>51086</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="D228">
         <f t="shared" si="11"/>
-        <v>454000</v>
+        <v>51539</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -11376,7 +11376,7 @@
       </c>
       <c r="D229">
         <f t="shared" si="11"/>
-        <v>456000</v>
+        <v>51994</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -11393,7 +11393,7 @@
       </c>
       <c r="D230">
         <f t="shared" si="11"/>
-        <v>458000</v>
+        <v>52451</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="D231">
         <f t="shared" si="11"/>
-        <v>460000</v>
+        <v>52910</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -11427,7 +11427,7 @@
       </c>
       <c r="D232">
         <f t="shared" si="11"/>
-        <v>462000</v>
+        <v>53371</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="D233">
         <f t="shared" si="11"/>
-        <v>464000</v>
+        <v>53834</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -11461,7 +11461,7 @@
       </c>
       <c r="D234">
         <f t="shared" si="11"/>
-        <v>466000</v>
+        <v>54299</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -11478,7 +11478,7 @@
       </c>
       <c r="D235">
         <f t="shared" si="11"/>
-        <v>468000</v>
+        <v>54766</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="D236">
         <f t="shared" si="11"/>
-        <v>470000</v>
+        <v>55235</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="D237">
         <f t="shared" si="11"/>
-        <v>472000</v>
+        <v>55706</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="D238">
         <f t="shared" si="11"/>
-        <v>474000</v>
+        <v>56179</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="D239">
         <f t="shared" si="11"/>
-        <v>476000</v>
+        <v>56654</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="D240">
         <f t="shared" si="11"/>
-        <v>478000</v>
+        <v>57131</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="D241">
         <f t="shared" si="11"/>
-        <v>480000</v>
+        <v>57610</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="D242">
         <f t="shared" si="11"/>
-        <v>482000</v>
+        <v>58091</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -11614,7 +11614,7 @@
       </c>
       <c r="D243">
         <f t="shared" si="11"/>
-        <v>484000</v>
+        <v>58574</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -11631,7 +11631,7 @@
       </c>
       <c r="D244">
         <f t="shared" si="11"/>
-        <v>486000</v>
+        <v>59059</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="D245">
         <f t="shared" si="11"/>
-        <v>488000</v>
+        <v>59546</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -11665,7 +11665,7 @@
       </c>
       <c r="D246">
         <f t="shared" si="11"/>
-        <v>490000</v>
+        <v>60035</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -11682,7 +11682,7 @@
       </c>
       <c r="D247">
         <f t="shared" si="11"/>
-        <v>492000</v>
+        <v>60526</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="D248">
         <f t="shared" si="11"/>
-        <v>494000</v>
+        <v>61019</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -11716,7 +11716,7 @@
       </c>
       <c r="D249">
         <f t="shared" si="11"/>
-        <v>496000</v>
+        <v>61514</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="D250">
         <f t="shared" si="11"/>
-        <v>498000</v>
+        <v>62011</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -11750,7 +11750,7 @@
       </c>
       <c r="D251">
         <f t="shared" si="11"/>
-        <v>500000</v>
+        <v>62510</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -11767,7 +11767,7 @@
       </c>
       <c r="D252">
         <f t="shared" si="11"/>
-        <v>502000</v>
+        <v>63011</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -11784,7 +11784,7 @@
       </c>
       <c r="D253">
         <f t="shared" si="11"/>
-        <v>504000</v>
+        <v>63514</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="D254">
         <f t="shared" si="11"/>
-        <v>506000</v>
+        <v>64019</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -11818,7 +11818,7 @@
       </c>
       <c r="D255">
         <f t="shared" si="11"/>
-        <v>508000</v>
+        <v>64526</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D256">
         <f t="shared" si="11"/>
-        <v>510000</v>
+        <v>65035</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -11852,7 +11852,7 @@
       </c>
       <c r="D257">
         <f t="shared" si="11"/>
-        <v>512000</v>
+        <v>65546</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="D258">
         <f t="shared" si="11"/>
-        <v>514000</v>
+        <v>66059</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -11885,8 +11885,8 @@
         <v>66574</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="14">2000*A259</f>
-        <v>516000</v>
+        <f t="shared" ref="D259:D322" si="14">A259*A259+10</f>
+        <v>66574</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -11903,7 +11903,7 @@
       </c>
       <c r="D260">
         <f t="shared" si="14"/>
-        <v>518000</v>
+        <v>67091</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="D261">
         <f t="shared" si="14"/>
-        <v>520000</v>
+        <v>67610</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="D262">
         <f t="shared" si="14"/>
-        <v>522000</v>
+        <v>68131</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="D263">
         <f t="shared" si="14"/>
-        <v>524000</v>
+        <v>68654</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -11971,7 +11971,7 @@
       </c>
       <c r="D264">
         <f t="shared" si="14"/>
-        <v>526000</v>
+        <v>69179</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="D265">
         <f t="shared" si="14"/>
-        <v>528000</v>
+        <v>69706</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -12005,7 +12005,7 @@
       </c>
       <c r="D266">
         <f t="shared" si="14"/>
-        <v>530000</v>
+        <v>70235</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -12022,7 +12022,7 @@
       </c>
       <c r="D267">
         <f t="shared" si="14"/>
-        <v>532000</v>
+        <v>70766</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -12039,7 +12039,7 @@
       </c>
       <c r="D268">
         <f t="shared" si="14"/>
-        <v>534000</v>
+        <v>71299</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="D269">
         <f t="shared" si="14"/>
-        <v>536000</v>
+        <v>71834</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -12073,7 +12073,7 @@
       </c>
       <c r="D270">
         <f t="shared" si="14"/>
-        <v>538000</v>
+        <v>72371</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -12090,7 +12090,7 @@
       </c>
       <c r="D271">
         <f t="shared" si="14"/>
-        <v>540000</v>
+        <v>72910</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="D272">
         <f t="shared" si="14"/>
-        <v>542000</v>
+        <v>73451</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -12124,7 +12124,7 @@
       </c>
       <c r="D273">
         <f t="shared" si="14"/>
-        <v>544000</v>
+        <v>73994</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="D274">
         <f t="shared" si="14"/>
-        <v>546000</v>
+        <v>74539</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="D275">
         <f t="shared" si="14"/>
-        <v>548000</v>
+        <v>75086</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -12175,7 +12175,7 @@
       </c>
       <c r="D276">
         <f t="shared" si="14"/>
-        <v>550000</v>
+        <v>75635</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="D277">
         <f t="shared" si="14"/>
-        <v>552000</v>
+        <v>76186</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -12209,7 +12209,7 @@
       </c>
       <c r="D278">
         <f t="shared" si="14"/>
-        <v>554000</v>
+        <v>76739</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -12226,7 +12226,7 @@
       </c>
       <c r="D279">
         <f t="shared" si="14"/>
-        <v>556000</v>
+        <v>77294</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -12243,7 +12243,7 @@
       </c>
       <c r="D280">
         <f t="shared" si="14"/>
-        <v>558000</v>
+        <v>77851</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="D281">
         <f t="shared" si="14"/>
-        <v>560000</v>
+        <v>78410</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -12277,7 +12277,7 @@
       </c>
       <c r="D282">
         <f t="shared" si="14"/>
-        <v>562000</v>
+        <v>78971</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="D283">
         <f t="shared" si="14"/>
-        <v>564000</v>
+        <v>79534</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="D284">
         <f t="shared" si="14"/>
-        <v>566000</v>
+        <v>80099</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -12328,7 +12328,7 @@
       </c>
       <c r="D285">
         <f t="shared" si="14"/>
-        <v>568000</v>
+        <v>80666</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="D286">
         <f t="shared" si="14"/>
-        <v>570000</v>
+        <v>81235</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="D287">
         <f t="shared" si="14"/>
-        <v>572000</v>
+        <v>81806</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="D288">
         <f t="shared" si="14"/>
-        <v>574000</v>
+        <v>82379</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -12396,7 +12396,7 @@
       </c>
       <c r="D289">
         <f t="shared" si="14"/>
-        <v>576000</v>
+        <v>82954</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="D290">
         <f t="shared" si="14"/>
-        <v>578000</v>
+        <v>83531</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="D291">
         <f t="shared" si="14"/>
-        <v>580000</v>
+        <v>84110</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -12447,7 +12447,7 @@
       </c>
       <c r="D292">
         <f t="shared" si="14"/>
-        <v>582000</v>
+        <v>84691</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="D293">
         <f t="shared" si="14"/>
-        <v>584000</v>
+        <v>85274</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -12481,7 +12481,7 @@
       </c>
       <c r="D294">
         <f t="shared" si="14"/>
-        <v>586000</v>
+        <v>85859</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -12498,7 +12498,7 @@
       </c>
       <c r="D295">
         <f t="shared" si="14"/>
-        <v>588000</v>
+        <v>86446</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="D296">
         <f t="shared" si="14"/>
-        <v>590000</v>
+        <v>87035</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -12532,7 +12532,7 @@
       </c>
       <c r="D297">
         <f t="shared" si="14"/>
-        <v>592000</v>
+        <v>87626</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="D298">
         <f t="shared" si="14"/>
-        <v>594000</v>
+        <v>88219</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="D299">
         <f t="shared" si="14"/>
-        <v>596000</v>
+        <v>88814</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -12583,7 +12583,7 @@
       </c>
       <c r="D300">
         <f t="shared" si="14"/>
-        <v>598000</v>
+        <v>89411</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -12600,7 +12600,7 @@
       </c>
       <c r="D301">
         <f t="shared" si="14"/>
-        <v>600000</v>
+        <v>90010</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="D302">
         <f t="shared" si="14"/>
-        <v>602000</v>
+        <v>90611</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="D303">
         <f t="shared" si="14"/>
-        <v>604000</v>
+        <v>91214</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="D304">
         <f t="shared" si="14"/>
-        <v>606000</v>
+        <v>91819</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -12668,7 +12668,7 @@
       </c>
       <c r="D305">
         <f t="shared" si="14"/>
-        <v>608000</v>
+        <v>92426</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -12685,7 +12685,7 @@
       </c>
       <c r="D306">
         <f t="shared" si="14"/>
-        <v>610000</v>
+        <v>93035</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
@@ -12702,7 +12702,7 @@
       </c>
       <c r="D307">
         <f t="shared" si="14"/>
-        <v>612000</v>
+        <v>93646</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.2">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="D308">
         <f t="shared" si="14"/>
-        <v>614000</v>
+        <v>94259</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.2">
@@ -12736,7 +12736,7 @@
       </c>
       <c r="D309">
         <f t="shared" si="14"/>
-        <v>616000</v>
+        <v>94874</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.2">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="D310">
         <f t="shared" si="14"/>
-        <v>618000</v>
+        <v>95491</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.2">
@@ -12770,7 +12770,7 @@
       </c>
       <c r="D311">
         <f t="shared" si="14"/>
-        <v>620000</v>
+        <v>96110</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.2">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="D312">
         <f t="shared" si="14"/>
-        <v>622000</v>
+        <v>96731</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.2">
@@ -12804,7 +12804,7 @@
       </c>
       <c r="D313">
         <f t="shared" si="14"/>
-        <v>624000</v>
+        <v>97354</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.2">
@@ -12821,7 +12821,7 @@
       </c>
       <c r="D314">
         <f t="shared" si="14"/>
-        <v>626000</v>
+        <v>97979</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.2">
@@ -12838,7 +12838,7 @@
       </c>
       <c r="D315">
         <f t="shared" si="14"/>
-        <v>628000</v>
+        <v>98606</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.2">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="D316">
         <f t="shared" si="14"/>
-        <v>630000</v>
+        <v>99235</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.2">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="D317">
         <f t="shared" si="14"/>
-        <v>632000</v>
+        <v>99866</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.2">
@@ -12889,7 +12889,7 @@
       </c>
       <c r="D318">
         <f t="shared" si="14"/>
-        <v>634000</v>
+        <v>100499</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.2">
@@ -12906,7 +12906,7 @@
       </c>
       <c r="D319">
         <f t="shared" si="14"/>
-        <v>636000</v>
+        <v>101134</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.2">
@@ -12923,7 +12923,7 @@
       </c>
       <c r="D320">
         <f t="shared" si="14"/>
-        <v>638000</v>
+        <v>101771</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.2">
@@ -12940,7 +12940,7 @@
       </c>
       <c r="D321">
         <f t="shared" si="14"/>
-        <v>640000</v>
+        <v>102410</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.2">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="D322">
         <f t="shared" si="14"/>
-        <v>642000</v>
+        <v>103051</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.2">
@@ -12973,8 +12973,8 @@
         <v>103694</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="17">2000*A323</f>
-        <v>644000</v>
+        <f t="shared" ref="D323:D386" si="17">A323*A323+10</f>
+        <v>103694</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.2">
@@ -12991,7 +12991,7 @@
       </c>
       <c r="D324">
         <f t="shared" si="17"/>
-        <v>646000</v>
+        <v>104339</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.2">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="D325">
         <f t="shared" si="17"/>
-        <v>648000</v>
+        <v>104986</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.2">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="D326">
         <f t="shared" si="17"/>
-        <v>650000</v>
+        <v>105635</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.2">
@@ -13042,7 +13042,7 @@
       </c>
       <c r="D327">
         <f t="shared" si="17"/>
-        <v>652000</v>
+        <v>106286</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.2">
@@ -13059,7 +13059,7 @@
       </c>
       <c r="D328">
         <f t="shared" si="17"/>
-        <v>654000</v>
+        <v>106939</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.2">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="D329">
         <f t="shared" si="17"/>
-        <v>656000</v>
+        <v>107594</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.2">
@@ -13093,7 +13093,7 @@
       </c>
       <c r="D330">
         <f t="shared" si="17"/>
-        <v>658000</v>
+        <v>108251</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.2">
@@ -13110,7 +13110,7 @@
       </c>
       <c r="D331">
         <f t="shared" si="17"/>
-        <v>660000</v>
+        <v>108910</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.2">
@@ -13127,7 +13127,7 @@
       </c>
       <c r="D332">
         <f t="shared" si="17"/>
-        <v>662000</v>
+        <v>109571</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.2">
@@ -13144,7 +13144,7 @@
       </c>
       <c r="D333">
         <f t="shared" si="17"/>
-        <v>664000</v>
+        <v>110234</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="D334">
         <f t="shared" si="17"/>
-        <v>666000</v>
+        <v>110899</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.2">
@@ -13178,7 +13178,7 @@
       </c>
       <c r="D335">
         <f t="shared" si="17"/>
-        <v>668000</v>
+        <v>111566</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.2">
@@ -13195,7 +13195,7 @@
       </c>
       <c r="D336">
         <f t="shared" si="17"/>
-        <v>670000</v>
+        <v>112235</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.2">
@@ -13212,7 +13212,7 @@
       </c>
       <c r="D337">
         <f t="shared" si="17"/>
-        <v>672000</v>
+        <v>112906</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
@@ -13229,7 +13229,7 @@
       </c>
       <c r="D338">
         <f t="shared" si="17"/>
-        <v>674000</v>
+        <v>113579</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D339">
         <f t="shared" si="17"/>
-        <v>676000</v>
+        <v>114254</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="D340">
         <f t="shared" si="17"/>
-        <v>678000</v>
+        <v>114931</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.2">
@@ -13280,7 +13280,7 @@
       </c>
       <c r="D341">
         <f t="shared" si="17"/>
-        <v>680000</v>
+        <v>115610</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
@@ -13297,7 +13297,7 @@
       </c>
       <c r="D342">
         <f t="shared" si="17"/>
-        <v>682000</v>
+        <v>116291</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="D343">
         <f t="shared" si="17"/>
-        <v>684000</v>
+        <v>116974</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
@@ -13331,7 +13331,7 @@
       </c>
       <c r="D344">
         <f t="shared" si="17"/>
-        <v>686000</v>
+        <v>117659</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="D345">
         <f t="shared" si="17"/>
-        <v>688000</v>
+        <v>118346</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="D346">
         <f t="shared" si="17"/>
-        <v>690000</v>
+        <v>119035</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
@@ -13382,7 +13382,7 @@
       </c>
       <c r="D347">
         <f t="shared" si="17"/>
-        <v>692000</v>
+        <v>119726</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
@@ -13399,7 +13399,7 @@
       </c>
       <c r="D348">
         <f t="shared" si="17"/>
-        <v>694000</v>
+        <v>120419</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
@@ -13416,7 +13416,7 @@
       </c>
       <c r="D349">
         <f t="shared" si="17"/>
-        <v>696000</v>
+        <v>121114</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="D350">
         <f t="shared" si="17"/>
-        <v>698000</v>
+        <v>121811</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
@@ -13450,7 +13450,7 @@
       </c>
       <c r="D351">
         <f t="shared" si="17"/>
-        <v>700000</v>
+        <v>122510</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
@@ -13467,7 +13467,7 @@
       </c>
       <c r="D352">
         <f t="shared" si="17"/>
-        <v>702000</v>
+        <v>123211</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
@@ -13484,7 +13484,7 @@
       </c>
       <c r="D353">
         <f t="shared" si="17"/>
-        <v>704000</v>
+        <v>123914</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
@@ -13501,7 +13501,7 @@
       </c>
       <c r="D354">
         <f t="shared" si="17"/>
-        <v>706000</v>
+        <v>124619</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
@@ -13518,7 +13518,7 @@
       </c>
       <c r="D355">
         <f t="shared" si="17"/>
-        <v>708000</v>
+        <v>125326</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
@@ -13535,7 +13535,7 @@
       </c>
       <c r="D356">
         <f t="shared" si="17"/>
-        <v>710000</v>
+        <v>126035</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
@@ -13552,7 +13552,7 @@
       </c>
       <c r="D357">
         <f t="shared" si="17"/>
-        <v>712000</v>
+        <v>126746</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="D358">
         <f t="shared" si="17"/>
-        <v>714000</v>
+        <v>127459</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
@@ -13586,7 +13586,7 @@
       </c>
       <c r="D359">
         <f t="shared" si="17"/>
-        <v>716000</v>
+        <v>128174</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
@@ -13603,7 +13603,7 @@
       </c>
       <c r="D360">
         <f t="shared" si="17"/>
-        <v>718000</v>
+        <v>128891</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
@@ -13620,7 +13620,7 @@
       </c>
       <c r="D361">
         <f t="shared" si="17"/>
-        <v>720000</v>
+        <v>129610</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="D362">
         <f t="shared" si="17"/>
-        <v>722000</v>
+        <v>130331</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
@@ -13654,7 +13654,7 @@
       </c>
       <c r="D363">
         <f t="shared" si="17"/>
-        <v>724000</v>
+        <v>131054</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
@@ -13671,7 +13671,7 @@
       </c>
       <c r="D364">
         <f t="shared" si="17"/>
-        <v>726000</v>
+        <v>131779</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.2">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="D365">
         <f t="shared" si="17"/>
-        <v>728000</v>
+        <v>132506</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="D366">
         <f t="shared" si="17"/>
-        <v>730000</v>
+        <v>133235</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="D367">
         <f t="shared" si="17"/>
-        <v>732000</v>
+        <v>133966</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="D368">
         <f t="shared" si="17"/>
-        <v>734000</v>
+        <v>134699</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.2">
@@ -13756,7 +13756,7 @@
       </c>
       <c r="D369">
         <f t="shared" si="17"/>
-        <v>736000</v>
+        <v>135434</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="D370">
         <f t="shared" si="17"/>
-        <v>738000</v>
+        <v>136171</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
@@ -13790,7 +13790,7 @@
       </c>
       <c r="D371">
         <f t="shared" si="17"/>
-        <v>740000</v>
+        <v>136910</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="D372">
         <f t="shared" si="17"/>
-        <v>742000</v>
+        <v>137651</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
@@ -13824,7 +13824,7 @@
       </c>
       <c r="D373">
         <f t="shared" si="17"/>
-        <v>744000</v>
+        <v>138394</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
@@ -13841,7 +13841,7 @@
       </c>
       <c r="D374">
         <f t="shared" si="17"/>
-        <v>746000</v>
+        <v>139139</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.2">
@@ -13858,7 +13858,7 @@
       </c>
       <c r="D375">
         <f t="shared" si="17"/>
-        <v>748000</v>
+        <v>139886</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.2">
@@ -13875,7 +13875,7 @@
       </c>
       <c r="D376">
         <f t="shared" si="17"/>
-        <v>750000</v>
+        <v>140635</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.2">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="D377">
         <f t="shared" si="17"/>
-        <v>752000</v>
+        <v>141386</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.2">
@@ -13909,7 +13909,7 @@
       </c>
       <c r="D378">
         <f t="shared" si="17"/>
-        <v>754000</v>
+        <v>142139</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.2">
@@ -13926,7 +13926,7 @@
       </c>
       <c r="D379">
         <f t="shared" si="17"/>
-        <v>756000</v>
+        <v>142894</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.2">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="D380">
         <f t="shared" si="17"/>
-        <v>758000</v>
+        <v>143651</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.2">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="D381">
         <f t="shared" si="17"/>
-        <v>760000</v>
+        <v>144410</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.2">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="D382">
         <f t="shared" si="17"/>
-        <v>762000</v>
+        <v>145171</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.2">
@@ -13994,7 +13994,7 @@
       </c>
       <c r="D383">
         <f t="shared" si="17"/>
-        <v>764000</v>
+        <v>145934</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.2">
@@ -14011,7 +14011,7 @@
       </c>
       <c r="D384">
         <f t="shared" si="17"/>
-        <v>766000</v>
+        <v>146699</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.2">
@@ -14028,7 +14028,7 @@
       </c>
       <c r="D385">
         <f t="shared" si="17"/>
-        <v>768000</v>
+        <v>147466</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.2">
@@ -14045,7 +14045,7 @@
       </c>
       <c r="D386">
         <f t="shared" si="17"/>
-        <v>770000</v>
+        <v>148235</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.2">
@@ -14061,8 +14061,8 @@
         <v>149006</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="20">2000*A387</f>
-        <v>772000</v>
+        <f t="shared" ref="D387:D450" si="20">A387*A387+10</f>
+        <v>149006</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.2">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="D388">
         <f t="shared" si="20"/>
-        <v>774000</v>
+        <v>149779</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.2">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="D389">
         <f t="shared" si="20"/>
-        <v>776000</v>
+        <v>150554</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.2">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="D390">
         <f t="shared" si="20"/>
-        <v>778000</v>
+        <v>151331</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.2">
@@ -14130,7 +14130,7 @@
       </c>
       <c r="D391">
         <f t="shared" si="20"/>
-        <v>780000</v>
+        <v>152110</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.2">
@@ -14147,7 +14147,7 @@
       </c>
       <c r="D392">
         <f t="shared" si="20"/>
-        <v>782000</v>
+        <v>152891</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.2">
@@ -14164,7 +14164,7 @@
       </c>
       <c r="D393">
         <f t="shared" si="20"/>
-        <v>784000</v>
+        <v>153674</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.2">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="D394">
         <f t="shared" si="20"/>
-        <v>786000</v>
+        <v>154459</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.2">
@@ -14198,7 +14198,7 @@
       </c>
       <c r="D395">
         <f t="shared" si="20"/>
-        <v>788000</v>
+        <v>155246</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.2">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="D396">
         <f t="shared" si="20"/>
-        <v>790000</v>
+        <v>156035</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.2">
@@ -14232,7 +14232,7 @@
       </c>
       <c r="D397">
         <f t="shared" si="20"/>
-        <v>792000</v>
+        <v>156826</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.2">
@@ -14249,7 +14249,7 @@
       </c>
       <c r="D398">
         <f t="shared" si="20"/>
-        <v>794000</v>
+        <v>157619</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.2">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D399">
         <f t="shared" si="20"/>
-        <v>796000</v>
+        <v>158414</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.2">
@@ -14283,7 +14283,7 @@
       </c>
       <c r="D400">
         <f t="shared" si="20"/>
-        <v>798000</v>
+        <v>159211</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.2">
@@ -14300,7 +14300,7 @@
       </c>
       <c r="D401">
         <f t="shared" si="20"/>
-        <v>800000</v>
+        <v>160010</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.2">
@@ -14317,7 +14317,7 @@
       </c>
       <c r="D402">
         <f t="shared" si="20"/>
-        <v>802000</v>
+        <v>160811</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.2">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="D403">
         <f t="shared" si="20"/>
-        <v>804000</v>
+        <v>161614</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.2">
@@ -14351,7 +14351,7 @@
       </c>
       <c r="D404">
         <f t="shared" si="20"/>
-        <v>806000</v>
+        <v>162419</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.2">
@@ -14368,7 +14368,7 @@
       </c>
       <c r="D405">
         <f t="shared" si="20"/>
-        <v>808000</v>
+        <v>163226</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.2">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="D406">
         <f t="shared" si="20"/>
-        <v>810000</v>
+        <v>164035</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.2">
@@ -14402,7 +14402,7 @@
       </c>
       <c r="D407">
         <f t="shared" si="20"/>
-        <v>812000</v>
+        <v>164846</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.2">
@@ -14419,7 +14419,7 @@
       </c>
       <c r="D408">
         <f t="shared" si="20"/>
-        <v>814000</v>
+        <v>165659</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="D409">
         <f t="shared" si="20"/>
-        <v>816000</v>
+        <v>166474</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
@@ -14453,7 +14453,7 @@
       </c>
       <c r="D410">
         <f t="shared" si="20"/>
-        <v>818000</v>
+        <v>167291</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
@@ -14470,7 +14470,7 @@
       </c>
       <c r="D411">
         <f t="shared" si="20"/>
-        <v>820000</v>
+        <v>168110</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
@@ -14487,7 +14487,7 @@
       </c>
       <c r="D412">
         <f t="shared" si="20"/>
-        <v>822000</v>
+        <v>168931</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
@@ -14504,7 +14504,7 @@
       </c>
       <c r="D413">
         <f t="shared" si="20"/>
-        <v>824000</v>
+        <v>169754</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
@@ -14521,7 +14521,7 @@
       </c>
       <c r="D414">
         <f t="shared" si="20"/>
-        <v>826000</v>
+        <v>170579</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.2">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="D415">
         <f t="shared" si="20"/>
-        <v>828000</v>
+        <v>171406</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.2">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="D416">
         <f t="shared" si="20"/>
-        <v>830000</v>
+        <v>172235</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
@@ -14572,7 +14572,7 @@
       </c>
       <c r="D417">
         <f t="shared" si="20"/>
-        <v>832000</v>
+        <v>173066</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="D418">
         <f t="shared" si="20"/>
-        <v>834000</v>
+        <v>173899</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -14606,7 +14606,7 @@
       </c>
       <c r="D419">
         <f t="shared" si="20"/>
-        <v>836000</v>
+        <v>174734</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="D420">
         <f t="shared" si="20"/>
-        <v>838000</v>
+        <v>175571</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
@@ -14640,7 +14640,7 @@
       </c>
       <c r="D421">
         <f t="shared" si="20"/>
-        <v>840000</v>
+        <v>176410</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
@@ -14657,7 +14657,7 @@
       </c>
       <c r="D422">
         <f t="shared" si="20"/>
-        <v>842000</v>
+        <v>177251</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
@@ -14674,7 +14674,7 @@
       </c>
       <c r="D423">
         <f t="shared" si="20"/>
-        <v>844000</v>
+        <v>178094</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="D424">
         <f t="shared" si="20"/>
-        <v>846000</v>
+        <v>178939</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="D425">
         <f t="shared" si="20"/>
-        <v>848000</v>
+        <v>179786</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -14725,7 +14725,7 @@
       </c>
       <c r="D426">
         <f t="shared" si="20"/>
-        <v>850000</v>
+        <v>180635</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
@@ -14742,7 +14742,7 @@
       </c>
       <c r="D427">
         <f t="shared" si="20"/>
-        <v>852000</v>
+        <v>181486</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
@@ -14759,7 +14759,7 @@
       </c>
       <c r="D428">
         <f t="shared" si="20"/>
-        <v>854000</v>
+        <v>182339</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="D429">
         <f t="shared" si="20"/>
-        <v>856000</v>
+        <v>183194</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="D430">
         <f t="shared" si="20"/>
-        <v>858000</v>
+        <v>184051</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
@@ -14810,7 +14810,7 @@
       </c>
       <c r="D431">
         <f t="shared" si="20"/>
-        <v>860000</v>
+        <v>184910</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
@@ -14827,7 +14827,7 @@
       </c>
       <c r="D432">
         <f t="shared" si="20"/>
-        <v>862000</v>
+        <v>185771</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="D433">
         <f t="shared" si="20"/>
-        <v>864000</v>
+        <v>186634</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
@@ -14861,7 +14861,7 @@
       </c>
       <c r="D434">
         <f t="shared" si="20"/>
-        <v>866000</v>
+        <v>187499</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
@@ -14878,7 +14878,7 @@
       </c>
       <c r="D435">
         <f t="shared" si="20"/>
-        <v>868000</v>
+        <v>188366</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
@@ -14895,7 +14895,7 @@
       </c>
       <c r="D436">
         <f t="shared" si="20"/>
-        <v>870000</v>
+        <v>189235</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
@@ -14912,7 +14912,7 @@
       </c>
       <c r="D437">
         <f t="shared" si="20"/>
-        <v>872000</v>
+        <v>190106</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="D438">
         <f t="shared" si="20"/>
-        <v>874000</v>
+        <v>190979</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
@@ -14946,7 +14946,7 @@
       </c>
       <c r="D439">
         <f t="shared" si="20"/>
-        <v>876000</v>
+        <v>191854</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
@@ -14963,7 +14963,7 @@
       </c>
       <c r="D440">
         <f t="shared" si="20"/>
-        <v>878000</v>
+        <v>192731</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
@@ -14980,7 +14980,7 @@
       </c>
       <c r="D441">
         <f t="shared" si="20"/>
-        <v>880000</v>
+        <v>193610</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="D442">
         <f t="shared" si="20"/>
-        <v>882000</v>
+        <v>194491</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
@@ -15014,7 +15014,7 @@
       </c>
       <c r="D443">
         <f t="shared" si="20"/>
-        <v>884000</v>
+        <v>195374</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="D444">
         <f t="shared" si="20"/>
-        <v>886000</v>
+        <v>196259</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
@@ -15048,7 +15048,7 @@
       </c>
       <c r="D445">
         <f t="shared" si="20"/>
-        <v>888000</v>
+        <v>197146</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
@@ -15065,7 +15065,7 @@
       </c>
       <c r="D446">
         <f t="shared" si="20"/>
-        <v>890000</v>
+        <v>198035</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
@@ -15082,7 +15082,7 @@
       </c>
       <c r="D447">
         <f t="shared" si="20"/>
-        <v>892000</v>
+        <v>198926</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
@@ -15099,7 +15099,7 @@
       </c>
       <c r="D448">
         <f t="shared" si="20"/>
-        <v>894000</v>
+        <v>199819</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.2">
@@ -15116,7 +15116,7 @@
       </c>
       <c r="D449">
         <f t="shared" si="20"/>
-        <v>896000</v>
+        <v>200714</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.2">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="D450">
         <f t="shared" si="20"/>
-        <v>898000</v>
+        <v>201611</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.2">
@@ -15149,8 +15149,8 @@
         <v>202510</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D513" si="23">2000*A451</f>
-        <v>900000</v>
+        <f t="shared" ref="D451:D513" si="23">A451*A451+10</f>
+        <v>202510</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.2">
@@ -15167,7 +15167,7 @@
       </c>
       <c r="D452">
         <f t="shared" si="23"/>
-        <v>902000</v>
+        <v>203411</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.2">
@@ -15184,7 +15184,7 @@
       </c>
       <c r="D453">
         <f t="shared" si="23"/>
-        <v>904000</v>
+        <v>204314</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.2">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="D454">
         <f t="shared" si="23"/>
-        <v>906000</v>
+        <v>205219</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.2">
@@ -15218,7 +15218,7 @@
       </c>
       <c r="D455">
         <f t="shared" si="23"/>
-        <v>908000</v>
+        <v>206126</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.2">
@@ -15235,7 +15235,7 @@
       </c>
       <c r="D456">
         <f t="shared" si="23"/>
-        <v>910000</v>
+        <v>207035</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.2">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="D457">
         <f t="shared" si="23"/>
-        <v>912000</v>
+        <v>207946</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.2">
@@ -15269,7 +15269,7 @@
       </c>
       <c r="D458">
         <f t="shared" si="23"/>
-        <v>914000</v>
+        <v>208859</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.2">
@@ -15286,7 +15286,7 @@
       </c>
       <c r="D459">
         <f t="shared" si="23"/>
-        <v>916000</v>
+        <v>209774</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.2">
@@ -15303,7 +15303,7 @@
       </c>
       <c r="D460">
         <f t="shared" si="23"/>
-        <v>918000</v>
+        <v>210691</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.2">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="D461">
         <f t="shared" si="23"/>
-        <v>920000</v>
+        <v>211610</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="D462">
         <f t="shared" si="23"/>
-        <v>922000</v>
+        <v>212531</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.2">
@@ -15354,7 +15354,7 @@
       </c>
       <c r="D463">
         <f t="shared" si="23"/>
-        <v>924000</v>
+        <v>213454</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.2">
@@ -15371,7 +15371,7 @@
       </c>
       <c r="D464">
         <f t="shared" si="23"/>
-        <v>926000</v>
+        <v>214379</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.2">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="D465">
         <f t="shared" si="23"/>
-        <v>928000</v>
+        <v>215306</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.2">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="D466">
         <f t="shared" si="23"/>
-        <v>930000</v>
+        <v>216235</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.2">
@@ -15422,7 +15422,7 @@
       </c>
       <c r="D467">
         <f t="shared" si="23"/>
-        <v>932000</v>
+        <v>217166</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.2">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="D468">
         <f t="shared" si="23"/>
-        <v>934000</v>
+        <v>218099</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="D469">
         <f t="shared" si="23"/>
-        <v>936000</v>
+        <v>219034</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
@@ -15473,7 +15473,7 @@
       </c>
       <c r="D470">
         <f t="shared" si="23"/>
-        <v>938000</v>
+        <v>219971</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.2">
@@ -15490,7 +15490,7 @@
       </c>
       <c r="D471">
         <f t="shared" si="23"/>
-        <v>940000</v>
+        <v>220910</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="D472">
         <f t="shared" si="23"/>
-        <v>942000</v>
+        <v>221851</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
@@ -15524,7 +15524,7 @@
       </c>
       <c r="D473">
         <f t="shared" si="23"/>
-        <v>944000</v>
+        <v>222794</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.2">
@@ -15541,7 +15541,7 @@
       </c>
       <c r="D474">
         <f t="shared" si="23"/>
-        <v>946000</v>
+        <v>223739</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.2">
@@ -15558,7 +15558,7 @@
       </c>
       <c r="D475">
         <f t="shared" si="23"/>
-        <v>948000</v>
+        <v>224686</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.2">
@@ -15575,7 +15575,7 @@
       </c>
       <c r="D476">
         <f t="shared" si="23"/>
-        <v>950000</v>
+        <v>225635</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.2">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="D477">
         <f t="shared" si="23"/>
-        <v>952000</v>
+        <v>226586</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="D478">
         <f t="shared" si="23"/>
-        <v>954000</v>
+        <v>227539</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.2">
@@ -15626,7 +15626,7 @@
       </c>
       <c r="D479">
         <f t="shared" si="23"/>
-        <v>956000</v>
+        <v>228494</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.2">
@@ -15643,7 +15643,7 @@
       </c>
       <c r="D480">
         <f t="shared" si="23"/>
-        <v>958000</v>
+        <v>229451</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.2">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="D481">
         <f t="shared" si="23"/>
-        <v>960000</v>
+        <v>230410</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.2">
@@ -15677,7 +15677,7 @@
       </c>
       <c r="D482">
         <f t="shared" si="23"/>
-        <v>962000</v>
+        <v>231371</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.2">
@@ -15694,7 +15694,7 @@
       </c>
       <c r="D483">
         <f t="shared" si="23"/>
-        <v>964000</v>
+        <v>232334</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.2">
@@ -15711,7 +15711,7 @@
       </c>
       <c r="D484">
         <f t="shared" si="23"/>
-        <v>966000</v>
+        <v>233299</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.2">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="D485">
         <f t="shared" si="23"/>
-        <v>968000</v>
+        <v>234266</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
@@ -15745,7 +15745,7 @@
       </c>
       <c r="D486">
         <f t="shared" si="23"/>
-        <v>970000</v>
+        <v>235235</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.2">
@@ -15762,7 +15762,7 @@
       </c>
       <c r="D487">
         <f t="shared" si="23"/>
-        <v>972000</v>
+        <v>236206</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.2">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="D488">
         <f t="shared" si="23"/>
-        <v>974000</v>
+        <v>237179</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.2">
@@ -15796,7 +15796,7 @@
       </c>
       <c r="D489">
         <f t="shared" si="23"/>
-        <v>976000</v>
+        <v>238154</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="D490">
         <f t="shared" si="23"/>
-        <v>978000</v>
+        <v>239131</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
@@ -15830,7 +15830,7 @@
       </c>
       <c r="D491">
         <f t="shared" si="23"/>
-        <v>980000</v>
+        <v>240110</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
@@ -15847,7 +15847,7 @@
       </c>
       <c r="D492">
         <f t="shared" si="23"/>
-        <v>982000</v>
+        <v>241091</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
@@ -15864,7 +15864,7 @@
       </c>
       <c r="D493">
         <f t="shared" si="23"/>
-        <v>984000</v>
+        <v>242074</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.2">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="D494">
         <f t="shared" si="23"/>
-        <v>986000</v>
+        <v>243059</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.2">
@@ -15898,7 +15898,7 @@
       </c>
       <c r="D495">
         <f t="shared" si="23"/>
-        <v>988000</v>
+        <v>244046</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
@@ -15915,7 +15915,7 @@
       </c>
       <c r="D496">
         <f t="shared" si="23"/>
-        <v>990000</v>
+        <v>245035</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.2">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="D497">
         <f t="shared" si="23"/>
-        <v>992000</v>
+        <v>246026</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.2">
@@ -15949,7 +15949,7 @@
       </c>
       <c r="D498">
         <f t="shared" si="23"/>
-        <v>994000</v>
+        <v>247019</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
@@ -15966,7 +15966,7 @@
       </c>
       <c r="D499">
         <f t="shared" si="23"/>
-        <v>996000</v>
+        <v>248014</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
@@ -15983,7 +15983,7 @@
       </c>
       <c r="D500">
         <f t="shared" si="23"/>
-        <v>998000</v>
+        <v>249011</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="D501">
         <f t="shared" si="23"/>
-        <v>1000000</v>
+        <v>250010</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.2">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="D502">
         <f t="shared" si="23"/>
-        <v>1002000</v>
+        <v>251011</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
@@ -16034,7 +16034,7 @@
       </c>
       <c r="D503">
         <f t="shared" si="23"/>
-        <v>1004000</v>
+        <v>252014</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.2">
@@ -16051,7 +16051,7 @@
       </c>
       <c r="D504">
         <f t="shared" si="23"/>
-        <v>1006000</v>
+        <v>253019</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
@@ -16068,7 +16068,7 @@
       </c>
       <c r="D505">
         <f t="shared" si="23"/>
-        <v>1008000</v>
+        <v>254026</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
@@ -16085,7 +16085,7 @@
       </c>
       <c r="D506">
         <f t="shared" si="23"/>
-        <v>1010000</v>
+        <v>255035</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.2">
@@ -16102,7 +16102,7 @@
       </c>
       <c r="D507">
         <f t="shared" si="23"/>
-        <v>1012000</v>
+        <v>256046</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
@@ -16119,7 +16119,7 @@
       </c>
       <c r="D508">
         <f t="shared" si="23"/>
-        <v>1014000</v>
+        <v>257059</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="D509">
         <f t="shared" si="23"/>
-        <v>1016000</v>
+        <v>258074</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.2">
@@ -16153,7 +16153,7 @@
       </c>
       <c r="D510">
         <f t="shared" si="23"/>
-        <v>1018000</v>
+        <v>259091</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
@@ -16170,7 +16170,7 @@
       </c>
       <c r="D511">
         <f t="shared" si="23"/>
-        <v>1020000</v>
+        <v>260110</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
@@ -16187,7 +16187,7 @@
       </c>
       <c r="D512">
         <f t="shared" si="23"/>
-        <v>1022000</v>
+        <v>261131</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
@@ -16204,7 +16204,7 @@
       </c>
       <c r="D513">
         <f t="shared" si="23"/>
-        <v>1024000</v>
+        <v>262154</v>
       </c>
     </row>
   </sheetData>
